--- a/docs/Examples/Example1_Gas_Cell_Calibration/PseudoVoigt.xlsx
+++ b/docs/Examples/Example1_Gas_Cell_Calibration/PseudoVoigt.xlsx
@@ -19,12 +19,30 @@
     <t>filename_x</t>
   </si>
   <si>
+    <t>Ne_Corr</t>
+  </si>
+  <si>
+    <t>deltaNe</t>
+  </si>
+  <si>
     <t>pk2_peak_cent</t>
   </si>
   <si>
+    <t>pk1_peak_cent</t>
+  </si>
+  <si>
     <t>pk2_amplitude</t>
   </si>
   <si>
+    <t>pk1_amplitude</t>
+  </si>
+  <si>
+    <t>residual_pk2</t>
+  </si>
+  <si>
+    <t>residual_pk1</t>
+  </si>
+  <si>
     <t>pk2_sigma</t>
   </si>
   <si>
@@ -37,12 +55,6 @@
     <t>Peak2_Prop_Lor</t>
   </si>
   <si>
-    <t>pk1_peak_cent</t>
-  </si>
-  <si>
-    <t>pk1_amplitude</t>
-  </si>
-  <si>
     <t>pk1_sigma</t>
   </si>
   <si>
@@ -55,22 +67,10 @@
     <t>Peak1_Prop_Lor</t>
   </si>
   <si>
-    <t>deltaNe</t>
-  </si>
-  <si>
-    <t>Ne_Corr</t>
-  </si>
-  <si>
     <t>Ne_Corr_min</t>
   </si>
   <si>
     <t>Ne_Corr_max</t>
-  </si>
-  <si>
-    <t>residual_pk2</t>
-  </si>
-  <si>
-    <t>residual_pk1</t>
   </si>
   <si>
     <t>residual_pk1+pk2</t>
@@ -1378,43 +1378,43 @@
         <v>33</v>
       </c>
       <c r="C2">
+        <v>1.000672341139076</v>
+      </c>
+      <c r="D2">
+        <v>330.2555899271149</v>
+      </c>
+      <c r="E2">
         <v>1453.824137714816</v>
       </c>
-      <c r="D2">
+      <c r="F2">
+        <v>1123.568547787701</v>
+      </c>
+      <c r="G2">
         <v>21207.72021478431</v>
       </c>
-      <c r="E2">
+      <c r="H2">
+        <v>1446.814895226042</v>
+      </c>
+      <c r="I2">
+        <v>41.66655271648441</v>
+      </c>
+      <c r="J2">
+        <v>6.13672582002035</v>
+      </c>
+      <c r="K2">
         <v>0.6203285339049449</v>
       </c>
-      <c r="G2">
-        <v>0.00225</v>
-      </c>
-      <c r="H2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>0.3738985059721814</v>
       </c>
-      <c r="I2">
-        <v>1123.568547787701</v>
-      </c>
-      <c r="J2">
-        <v>1446.814895226042</v>
-      </c>
-      <c r="K2">
+      <c r="O2">
         <v>0.6289771011143301</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>0.407680087411411</v>
-      </c>
-      <c r="O2">
-        <v>330.2555899271149</v>
-      </c>
-      <c r="P2">
-        <v>1.000672341139076</v>
-      </c>
-      <c r="S2">
-        <v>41.66655271648441</v>
-      </c>
-      <c r="T2">
-        <v>6.13672582002035</v>
       </c>
       <c r="U2">
         <v>47.80327853650476</v>
@@ -1464,43 +1464,43 @@
         <v>34</v>
       </c>
       <c r="C3">
+        <v>1.000616591555964</v>
+      </c>
+      <c r="D3">
+        <v>330.2739901931252</v>
+      </c>
+      <c r="E3">
         <v>1453.828523171554</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1123.554532978428</v>
+      </c>
+      <c r="G3">
         <v>21691.26884916821</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>1328.306884272581</v>
+      </c>
+      <c r="I3">
+        <v>42.80647971611094</v>
+      </c>
+      <c r="J3">
+        <v>5.33545365352766</v>
+      </c>
+      <c r="K3">
         <v>0.61843636393068</v>
       </c>
-      <c r="G3">
-        <v>0.00235</v>
-      </c>
-      <c r="H3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.3660781948380815</v>
       </c>
-      <c r="I3">
-        <v>1123.554532978428</v>
-      </c>
-      <c r="J3">
-        <v>1328.306884272581</v>
-      </c>
-      <c r="K3">
+      <c r="O3">
         <v>0.6486933413875037</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <v>0.4087679679214551</v>
-      </c>
-      <c r="O3">
-        <v>330.2739901931252</v>
-      </c>
-      <c r="P3">
-        <v>1.000616591555964</v>
-      </c>
-      <c r="S3">
-        <v>42.80647971611094</v>
-      </c>
-      <c r="T3">
-        <v>5.33545365352766</v>
       </c>
       <c r="U3">
         <v>48.1419333696386</v>
@@ -1550,43 +1550,43 @@
         <v>35</v>
       </c>
       <c r="C4">
+        <v>1.000594812758474</v>
+      </c>
+      <c r="D4">
+        <v>330.2811788875467</v>
+      </c>
+      <c r="E4">
         <v>1453.82232508809</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1123.541146200543</v>
+      </c>
+      <c r="G4">
         <v>20320.58024531272</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>1618.787593186444</v>
+      </c>
+      <c r="I4">
+        <v>38.41164138306906</v>
+      </c>
+      <c r="J4">
+        <v>6.845346686930621</v>
+      </c>
+      <c r="K4">
         <v>0.6228620545919288</v>
       </c>
-      <c r="G4">
-        <v>0.00225</v>
-      </c>
-      <c r="H4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0.3663539501751377</v>
       </c>
-      <c r="I4">
-        <v>1123.541146200543</v>
-      </c>
-      <c r="J4">
-        <v>1618.787593186444</v>
-      </c>
-      <c r="K4">
+      <c r="O4">
         <v>0.6397488129682439</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>0.4180314224779178</v>
-      </c>
-      <c r="O4">
-        <v>330.2811788875467</v>
-      </c>
-      <c r="P4">
-        <v>1.000594812758474</v>
-      </c>
-      <c r="S4">
-        <v>38.41164138306906</v>
-      </c>
-      <c r="T4">
-        <v>6.845346686930621</v>
       </c>
       <c r="U4">
         <v>45.25698806999968</v>
@@ -1636,43 +1636,43 @@
         <v>36</v>
       </c>
       <c r="C5">
+        <v>1.000641965717805</v>
+      </c>
+      <c r="D5">
+        <v>330.2656151439405</v>
+      </c>
+      <c r="E5">
         <v>1453.816835429267</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1123.551220285326</v>
+      </c>
+      <c r="G5">
         <v>19843.74687413721</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>1499.88906715851</v>
+      </c>
+      <c r="I5">
+        <v>41.20599166488984</v>
+      </c>
+      <c r="J5">
+        <v>5.937953047832835</v>
+      </c>
+      <c r="K5">
         <v>0.6197854340411275</v>
       </c>
-      <c r="G5">
-        <v>0.00251</v>
-      </c>
-      <c r="H5">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0.3851316134418831</v>
       </c>
-      <c r="I5">
-        <v>1123.551220285326</v>
-      </c>
-      <c r="J5">
-        <v>1499.88906715851</v>
-      </c>
-      <c r="K5">
+      <c r="O5">
         <v>0.6364212484747924</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>0.448113978474632</v>
-      </c>
-      <c r="O5">
-        <v>330.2656151439405</v>
-      </c>
-      <c r="P5">
-        <v>1.000641965717805</v>
-      </c>
-      <c r="S5">
-        <v>41.20599166488984</v>
-      </c>
-      <c r="T5">
-        <v>5.937953047832835</v>
       </c>
       <c r="U5">
         <v>47.14394471272267</v>
@@ -1722,43 +1722,43 @@
         <v>37</v>
       </c>
       <c r="C6">
+        <v>1.000614034815864</v>
+      </c>
+      <c r="D6">
+        <v>330.274834099692</v>
+      </c>
+      <c r="E6">
         <v>1453.817174057574</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1123.542339957882</v>
+      </c>
+      <c r="G6">
         <v>20547.57647772583</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>1460.787562120133</v>
+      </c>
+      <c r="I6">
+        <v>43.86642492125705</v>
+      </c>
+      <c r="J6">
+        <v>6.587570567940721</v>
+      </c>
+      <c r="K6">
         <v>0.6222773537309388</v>
       </c>
-      <c r="G6">
-        <v>0.00261</v>
-      </c>
-      <c r="H6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0.3797557088542522</v>
       </c>
-      <c r="I6">
-        <v>1123.542339957882</v>
-      </c>
-      <c r="J6">
-        <v>1460.787562120133</v>
-      </c>
-      <c r="K6">
+      <c r="O6">
         <v>0.6439104430748237</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>0.3995344166833444</v>
-      </c>
-      <c r="O6">
-        <v>330.274834099692</v>
-      </c>
-      <c r="P6">
-        <v>1.000614034815864</v>
-      </c>
-      <c r="S6">
-        <v>43.86642492125705</v>
-      </c>
-      <c r="T6">
-        <v>6.587570567940721</v>
       </c>
       <c r="U6">
         <v>50.45399548919777</v>
@@ -1808,43 +1808,43 @@
         <v>38</v>
       </c>
       <c r="C7">
+        <v>1.000632691426213</v>
+      </c>
+      <c r="D7">
+        <v>330.2686761868626</v>
+      </c>
+      <c r="E7">
         <v>1453.81464777805</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1123.545971591188</v>
+      </c>
+      <c r="G7">
         <v>20645.55513732425</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>1526.529611717551</v>
+      </c>
+      <c r="I7">
+        <v>40.35810681807515</v>
+      </c>
+      <c r="J7">
+        <v>5.707204882251992</v>
+      </c>
+      <c r="K7">
         <v>0.6258569407193386</v>
       </c>
-      <c r="G7">
-        <v>0.0024</v>
-      </c>
-      <c r="H7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>0.3762981485684497</v>
       </c>
-      <c r="I7">
-        <v>1123.545971591188</v>
-      </c>
-      <c r="J7">
-        <v>1526.529611717551</v>
-      </c>
-      <c r="K7">
+      <c r="O7">
         <v>0.6179864765529425</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>0.4370681548091611</v>
-      </c>
-      <c r="O7">
-        <v>330.2686761868626</v>
-      </c>
-      <c r="P7">
-        <v>1.000632691426213</v>
-      </c>
-      <c r="S7">
-        <v>40.35810681807515</v>
-      </c>
-      <c r="T7">
-        <v>5.707204882251992</v>
       </c>
       <c r="U7">
         <v>46.06531170032714</v>
@@ -1894,43 +1894,43 @@
         <v>39</v>
       </c>
       <c r="C8">
+        <v>1.000604547749427</v>
+      </c>
+      <c r="D8">
+        <v>330.2779655458769</v>
+      </c>
+      <c r="E8">
         <v>1453.806151710498</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1123.528186164621</v>
+      </c>
+      <c r="G8">
         <v>20375.29387089088</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <v>1502.999477098808</v>
+      </c>
+      <c r="I8">
+        <v>43.5380453818754</v>
+      </c>
+      <c r="J8">
+        <v>6.766591442821113</v>
+      </c>
+      <c r="K8">
         <v>0.6247820811480714</v>
       </c>
-      <c r="G8">
-        <v>0.00256</v>
-      </c>
-      <c r="H8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0.3789471321543898</v>
       </c>
-      <c r="I8">
-        <v>1123.528186164621</v>
-      </c>
-      <c r="J8">
-        <v>1502.999477098808</v>
-      </c>
-      <c r="K8">
+      <c r="O8">
         <v>0.6318378993561191</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>0.4564325992897703</v>
-      </c>
-      <c r="O8">
-        <v>330.2779655458769</v>
-      </c>
-      <c r="P8">
-        <v>1.000604547749427</v>
-      </c>
-      <c r="S8">
-        <v>43.5380453818754</v>
-      </c>
-      <c r="T8">
-        <v>6.766591442821113</v>
       </c>
       <c r="U8">
         <v>50.30463682469652</v>
@@ -1980,43 +1980,43 @@
         <v>40</v>
       </c>
       <c r="C9">
+        <v>1.000596045146987</v>
+      </c>
+      <c r="D9">
+        <v>330.2807720952824</v>
+      </c>
+      <c r="E9">
         <v>1453.806207175838</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1123.525435080556</v>
+      </c>
+      <c r="G9">
         <v>20097.25090333418</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>1555.39825861347</v>
+      </c>
+      <c r="I9">
+        <v>41.31030635155285</v>
+      </c>
+      <c r="J9">
+        <v>6.70957327780873</v>
+      </c>
+      <c r="K9">
         <v>0.6263521802234405</v>
       </c>
-      <c r="G9">
-        <v>0.00242</v>
-      </c>
-      <c r="H9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>0.3707416866545901</v>
       </c>
-      <c r="I9">
-        <v>1123.525435080556</v>
-      </c>
-      <c r="J9">
-        <v>1555.39825861347</v>
-      </c>
-      <c r="K9">
+      <c r="O9">
         <v>0.6275227749175499</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>0.468667839678608</v>
-      </c>
-      <c r="O9">
-        <v>330.2807720952824</v>
-      </c>
-      <c r="P9">
-        <v>1.000596045146987</v>
-      </c>
-      <c r="S9">
-        <v>41.31030635155285</v>
-      </c>
-      <c r="T9">
-        <v>6.70957327780873</v>
       </c>
       <c r="U9">
         <v>48.01987962936158</v>
@@ -2066,43 +2066,43 @@
         <v>41</v>
       </c>
       <c r="C10">
+        <v>1.000585986454708</v>
+      </c>
+      <c r="D10">
+        <v>330.2840923423146</v>
+      </c>
+      <c r="E10">
         <v>1453.772211006492</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1123.488118664177</v>
+      </c>
+      <c r="G10">
         <v>21259.41648165957</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>1618.965162678575</v>
+      </c>
+      <c r="I10">
+        <v>43.37880904129673</v>
+      </c>
+      <c r="J10">
+        <v>6.916559647688471</v>
+      </c>
+      <c r="K10">
         <v>0.6287112020199872</v>
       </c>
-      <c r="G10">
-        <v>0.00235</v>
-      </c>
-      <c r="H10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>0.3587663354259155</v>
       </c>
-      <c r="I10">
-        <v>1123.488118664177</v>
-      </c>
-      <c r="J10">
-        <v>1618.965162678575</v>
-      </c>
-      <c r="K10">
+      <c r="O10">
         <v>0.6316029148854001</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>0.484900352858616</v>
-      </c>
-      <c r="O10">
-        <v>330.2840923423146</v>
-      </c>
-      <c r="P10">
-        <v>1.000585986454708</v>
-      </c>
-      <c r="S10">
-        <v>43.37880904129673</v>
-      </c>
-      <c r="T10">
-        <v>6.916559647688471</v>
       </c>
       <c r="U10">
         <v>50.2953686889852</v>
@@ -2152,43 +2152,43 @@
         <v>42</v>
       </c>
       <c r="C11">
+        <v>1.000592765562348</v>
+      </c>
+      <c r="D11">
+        <v>330.2818546373355</v>
+      </c>
+      <c r="E11">
         <v>1453.755112678146</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1123.473258040811</v>
+      </c>
+      <c r="G11">
         <v>21055.08583936378</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>1624.144446385512</v>
+      </c>
+      <c r="I11">
+        <v>42.16183567112072</v>
+      </c>
+      <c r="J11">
+        <v>6.204757435848779</v>
+      </c>
+      <c r="K11">
         <v>0.6316554284304758</v>
       </c>
-      <c r="G11">
-        <v>0.0024</v>
-      </c>
-      <c r="H11">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>0.3547889852606788</v>
       </c>
-      <c r="I11">
-        <v>1123.473258040811</v>
-      </c>
-      <c r="J11">
-        <v>1624.144446385512</v>
-      </c>
-      <c r="K11">
+      <c r="O11">
         <v>0.6051822022712319</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>0.4796559814508799</v>
-      </c>
-      <c r="O11">
-        <v>330.2818546373355</v>
-      </c>
-      <c r="P11">
-        <v>1.000592765562348</v>
-      </c>
-      <c r="S11">
-        <v>42.16183567112072</v>
-      </c>
-      <c r="T11">
-        <v>6.204757435848779</v>
       </c>
       <c r="U11">
         <v>48.3665931069695</v>
@@ -2238,43 +2238,43 @@
         <v>43</v>
       </c>
       <c r="C12">
+        <v>1.000607525383933</v>
+      </c>
+      <c r="D12">
+        <v>330.2769826959161</v>
+      </c>
+      <c r="E12">
         <v>1453.760640616532</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1123.483657920616</v>
+      </c>
+      <c r="G12">
         <v>20116.48240334301</v>
       </c>
-      <c r="E12">
+      <c r="H12">
+        <v>1621.751332245012</v>
+      </c>
+      <c r="I12">
+        <v>41.00097667765822</v>
+      </c>
+      <c r="J12">
+        <v>5.842952652437667</v>
+      </c>
+      <c r="K12">
         <v>0.6295395681675494</v>
       </c>
-      <c r="G12">
-        <v>0.00237</v>
-      </c>
-      <c r="H12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>0.3688529625782946</v>
       </c>
-      <c r="I12">
-        <v>1123.483657920616</v>
-      </c>
-      <c r="J12">
-        <v>1621.751332245012</v>
-      </c>
-      <c r="K12">
+      <c r="O12">
         <v>0.6328115631518376</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>0.4086171005221049</v>
-      </c>
-      <c r="O12">
-        <v>330.2769826959161</v>
-      </c>
-      <c r="P12">
-        <v>1.000607525383933</v>
-      </c>
-      <c r="S12">
-        <v>41.00097667765822</v>
-      </c>
-      <c r="T12">
-        <v>5.842952652437667</v>
       </c>
       <c r="U12">
         <v>46.84392933009589</v>
@@ -2324,43 +2324,43 @@
         <v>44</v>
       </c>
       <c r="C13">
+        <v>1.000622678582973</v>
+      </c>
+      <c r="D13">
+        <v>330.2719810574724</v>
+      </c>
+      <c r="E13">
         <v>1453.772985343938</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1123.501004286465</v>
+      </c>
+      <c r="G13">
         <v>19064.19294519749</v>
       </c>
-      <c r="E13">
+      <c r="H13">
+        <v>1465.369374660223</v>
+      </c>
+      <c r="I13">
+        <v>34.8663489717361</v>
+      </c>
+      <c r="J13">
+        <v>5.799699552909318</v>
+      </c>
+      <c r="K13">
         <v>0.6357654591239388</v>
       </c>
-      <c r="G13">
-        <v>0.00219</v>
-      </c>
-      <c r="H13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>0.3548555788575822</v>
       </c>
-      <c r="I13">
-        <v>1123.501004286465</v>
-      </c>
-      <c r="J13">
-        <v>1465.369374660223</v>
-      </c>
-      <c r="K13">
+      <c r="O13">
         <v>0.637743005123617</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>0.4172749688708615</v>
-      </c>
-      <c r="O13">
-        <v>330.2719810574724</v>
-      </c>
-      <c r="P13">
-        <v>1.000622678582973</v>
-      </c>
-      <c r="S13">
-        <v>34.8663489717361</v>
-      </c>
-      <c r="T13">
-        <v>5.799699552909318</v>
       </c>
       <c r="U13">
         <v>40.66604852464542</v>
@@ -2410,43 +2410,43 @@
         <v>45</v>
       </c>
       <c r="C14">
+        <v>1.000578880947151</v>
+      </c>
+      <c r="D14">
+        <v>330.2864378206759</v>
+      </c>
+      <c r="E14">
         <v>1453.78104391501</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1123.494606094334</v>
+      </c>
+      <c r="G14">
         <v>18754.56856891526</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1478.965225045436</v>
+      </c>
+      <c r="I14">
+        <v>35.58847536670353</v>
+      </c>
+      <c r="J14">
+        <v>5.975829979263666</v>
+      </c>
+      <c r="K14">
         <v>0.6314793946109969</v>
       </c>
-      <c r="G14">
-        <v>0.00233</v>
-      </c>
-      <c r="H14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>0.3678899026864748</v>
       </c>
-      <c r="I14">
-        <v>1123.494606094334</v>
-      </c>
-      <c r="J14">
-        <v>1478.965225045436</v>
-      </c>
-      <c r="K14">
+      <c r="O14">
         <v>0.6331054541474053</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>0.4670245868776213</v>
-      </c>
-      <c r="O14">
-        <v>330.2864378206759</v>
-      </c>
-      <c r="P14">
-        <v>1.000578880947151</v>
-      </c>
-      <c r="S14">
-        <v>35.58847536670353</v>
-      </c>
-      <c r="T14">
-        <v>5.975829979263666</v>
       </c>
       <c r="U14">
         <v>41.5643053459672</v>
@@ -2496,43 +2496,43 @@
         <v>46</v>
       </c>
       <c r="C15">
+        <v>1.000579602936576</v>
+      </c>
+      <c r="D15">
+        <v>330.2861994954947</v>
+      </c>
+      <c r="E15">
         <v>1453.78149129262</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1123.495291797125</v>
+      </c>
+      <c r="G15">
         <v>18682.1332981365</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>1417.792738076514</v>
+      </c>
+      <c r="I15">
+        <v>34.85916766666433</v>
+      </c>
+      <c r="J15">
+        <v>5.814719656851782</v>
+      </c>
+      <c r="K15">
         <v>0.6347514478063032</v>
       </c>
-      <c r="G15">
-        <v>0.00227</v>
-      </c>
-      <c r="H15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0.3554954333121206</v>
       </c>
-      <c r="I15">
-        <v>1123.495291797125</v>
-      </c>
-      <c r="J15">
-        <v>1417.792738076514</v>
-      </c>
-      <c r="K15">
+      <c r="O15">
         <v>0.6426253205236804</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>0.4323961891388208</v>
-      </c>
-      <c r="O15">
-        <v>330.2861994954947</v>
-      </c>
-      <c r="P15">
-        <v>1.000579602936576</v>
-      </c>
-      <c r="S15">
-        <v>34.85916766666433</v>
-      </c>
-      <c r="T15">
-        <v>5.814719656851782</v>
       </c>
       <c r="U15">
         <v>40.67388732351611</v>
@@ -2582,43 +2582,43 @@
         <v>47</v>
       </c>
       <c r="C16">
+        <v>1.000550677200498</v>
+      </c>
+      <c r="D16">
+        <v>330.295748008783</v>
+      </c>
+      <c r="E16">
         <v>1453.783114557011</v>
       </c>
-      <c r="D16">
+      <c r="F16">
+        <v>1123.487366548228</v>
+      </c>
+      <c r="G16">
         <v>18883.54168724222</v>
       </c>
-      <c r="E16">
+      <c r="H16">
+        <v>1430.790624950198</v>
+      </c>
+      <c r="I16">
+        <v>36.927123792199</v>
+      </c>
+      <c r="J16">
+        <v>6.849827499972885</v>
+      </c>
+      <c r="K16">
         <v>0.6287939079785784</v>
       </c>
-      <c r="G16">
-        <v>0.00229</v>
-      </c>
-      <c r="H16">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>0.3672059826854112</v>
       </c>
-      <c r="I16">
-        <v>1123.487366548228</v>
-      </c>
-      <c r="J16">
-        <v>1430.790624950198</v>
-      </c>
-      <c r="K16">
+      <c r="O16">
         <v>0.6414941937218998</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>0.4280765619279186</v>
-      </c>
-      <c r="O16">
-        <v>330.295748008783</v>
-      </c>
-      <c r="P16">
-        <v>1.000550677200498</v>
-      </c>
-      <c r="S16">
-        <v>36.927123792199</v>
-      </c>
-      <c r="T16">
-        <v>6.849827499972885</v>
       </c>
       <c r="U16">
         <v>43.77695129217188</v>
@@ -2668,43 +2668,43 @@
         <v>48</v>
       </c>
       <c r="C17">
+        <v>1.000553277800882</v>
+      </c>
+      <c r="D17">
+        <v>330.2948895165187</v>
+      </c>
+      <c r="E17">
         <v>1453.786988785364</v>
       </c>
-      <c r="D17">
+      <c r="F17">
+        <v>1123.492099268845</v>
+      </c>
+      <c r="G17">
         <v>18861.8904308645</v>
       </c>
-      <c r="E17">
+      <c r="H17">
+        <v>1439.16396003048</v>
+      </c>
+      <c r="I17">
+        <v>36.59237857041573</v>
+      </c>
+      <c r="J17">
+        <v>5.801818176588867</v>
+      </c>
+      <c r="K17">
         <v>0.630146115570549</v>
       </c>
-      <c r="G17">
-        <v>0.00235</v>
-      </c>
-      <c r="H17">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>0.3616002428793426</v>
       </c>
-      <c r="I17">
-        <v>1123.492099268845</v>
-      </c>
-      <c r="J17">
-        <v>1439.16396003048</v>
-      </c>
-      <c r="K17">
+      <c r="O17">
         <v>0.6362371158210949</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>0.4640366735723251</v>
-      </c>
-      <c r="O17">
-        <v>330.2948895165187</v>
-      </c>
-      <c r="P17">
-        <v>1.000553277800882</v>
-      </c>
-      <c r="S17">
-        <v>36.59237857041573</v>
-      </c>
-      <c r="T17">
-        <v>5.801818176588867</v>
       </c>
       <c r="U17">
         <v>42.3941967470046</v>
@@ -2754,43 +2754,43 @@
         <v>49</v>
       </c>
       <c r="C18">
+        <v>1.000600439030479</v>
+      </c>
+      <c r="D18">
+        <v>330.2793217508934</v>
+      </c>
+      <c r="E18">
         <v>1453.783750099728</v>
       </c>
-      <c r="D18">
+      <c r="F18">
+        <v>1123.504428348834</v>
+      </c>
+      <c r="G18">
         <v>18630.31612127609</v>
       </c>
-      <c r="E18">
+      <c r="H18">
+        <v>1561.315936096431</v>
+      </c>
+      <c r="I18">
+        <v>36.88249855422497</v>
+      </c>
+      <c r="J18">
+        <v>5.875563660297731</v>
+      </c>
+      <c r="K18">
         <v>0.6334541831647971</v>
       </c>
-      <c r="G18">
-        <v>0.00236</v>
-      </c>
-      <c r="H18">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>0.3598001655594433</v>
       </c>
-      <c r="I18">
-        <v>1123.504428348834</v>
-      </c>
-      <c r="J18">
-        <v>1561.315936096431</v>
-      </c>
-      <c r="K18">
+      <c r="O18">
         <v>0.6256106603953535</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>0.4380510121527733</v>
-      </c>
-      <c r="O18">
-        <v>330.2793217508934</v>
-      </c>
-      <c r="P18">
-        <v>1.000600439030479</v>
-      </c>
-      <c r="S18">
-        <v>36.88249855422497</v>
-      </c>
-      <c r="T18">
-        <v>5.875563660297731</v>
       </c>
       <c r="U18">
         <v>42.7580622145227</v>
@@ -2840,43 +2840,43 @@
         <v>50</v>
       </c>
       <c r="C19">
+        <v>1.000616934706076</v>
+      </c>
+      <c r="D19">
+        <v>330.2738769294449</v>
+      </c>
+      <c r="E19">
         <v>1453.781309053594</v>
       </c>
-      <c r="D19">
+      <c r="F19">
+        <v>1123.507432124149</v>
+      </c>
+      <c r="G19">
         <v>18572.52277146685</v>
       </c>
-      <c r="E19">
+      <c r="H19">
+        <v>1606.734010838099</v>
+      </c>
+      <c r="I19">
+        <v>36.95477865689188</v>
+      </c>
+      <c r="J19">
+        <v>6.093322336403418</v>
+      </c>
+      <c r="K19">
         <v>0.6302961755045813</v>
       </c>
-      <c r="G19">
-        <v>0.00237</v>
-      </c>
-      <c r="H19">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>0.3662549422310952</v>
       </c>
-      <c r="I19">
-        <v>1123.507432124149</v>
-      </c>
-      <c r="J19">
-        <v>1606.734010838099</v>
-      </c>
-      <c r="K19">
+      <c r="O19">
         <v>0.636291248476627</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>0.4009352301504068</v>
-      </c>
-      <c r="O19">
-        <v>330.2738769294449</v>
-      </c>
-      <c r="P19">
-        <v>1.000616934706076</v>
-      </c>
-      <c r="S19">
-        <v>36.95477865689188</v>
-      </c>
-      <c r="T19">
-        <v>6.093322336403418</v>
       </c>
       <c r="U19">
         <v>43.04810099329529</v>
@@ -2926,43 +2926,43 @@
         <v>51</v>
       </c>
       <c r="C20">
+        <v>1.000574219054766</v>
+      </c>
+      <c r="D20">
+        <v>330.2879766968535</v>
+      </c>
+      <c r="E20">
         <v>1453.776775249614</v>
       </c>
-      <c r="D20">
+      <c r="F20">
+        <v>1123.48879855276</v>
+      </c>
+      <c r="G20">
         <v>18452.45785890206</v>
       </c>
-      <c r="E20">
+      <c r="H20">
+        <v>1590.056558176669</v>
+      </c>
+      <c r="I20">
+        <v>36.43537608390672</v>
+      </c>
+      <c r="J20">
+        <v>6.733926402628029</v>
+      </c>
+      <c r="K20">
         <v>0.6332241581317302</v>
       </c>
-      <c r="G20">
-        <v>0.00234</v>
-      </c>
-      <c r="H20">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>0.3644046253757366</v>
       </c>
-      <c r="I20">
-        <v>1123.48879855276</v>
-      </c>
-      <c r="J20">
-        <v>1590.056558176669</v>
-      </c>
-      <c r="K20">
+      <c r="O20">
         <v>0.6498558892043927</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>0.4446058257279852</v>
-      </c>
-      <c r="O20">
-        <v>330.2879766968535</v>
-      </c>
-      <c r="P20">
-        <v>1.000574219054766</v>
-      </c>
-      <c r="S20">
-        <v>36.43537608390672</v>
-      </c>
-      <c r="T20">
-        <v>6.733926402628029</v>
       </c>
       <c r="U20">
         <v>43.16930248653475</v>
@@ -3012,43 +3012,43 @@
         <v>52</v>
       </c>
       <c r="C21">
+        <v>1.000607036011607</v>
+      </c>
+      <c r="D21">
+        <v>330.2771442262767</v>
+      </c>
+      <c r="E21">
         <v>1453.73775107745</v>
       </c>
-      <c r="D21">
+      <c r="F21">
+        <v>1123.460606851173</v>
+      </c>
+      <c r="G21">
         <v>18697.03747937848</v>
       </c>
-      <c r="E21">
+      <c r="H21">
+        <v>1655.946648265945</v>
+      </c>
+      <c r="I21">
+        <v>37.54920078485752</v>
+      </c>
+      <c r="J21">
+        <v>6.93825976585674</v>
+      </c>
+      <c r="K21">
         <v>0.6357059797938975</v>
       </c>
-      <c r="G21">
-        <v>0.00244</v>
-      </c>
-      <c r="H21">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>0.3635559702736475</v>
       </c>
-      <c r="I21">
-        <v>1123.460606851173</v>
-      </c>
-      <c r="J21">
-        <v>1655.946648265945</v>
-      </c>
-      <c r="K21">
+      <c r="O21">
         <v>0.6380152528049047</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>0.434212293020408</v>
-      </c>
-      <c r="O21">
-        <v>330.2771442262767</v>
-      </c>
-      <c r="P21">
-        <v>1.000607036011607</v>
-      </c>
-      <c r="S21">
-        <v>37.54920078485752</v>
-      </c>
-      <c r="T21">
-        <v>6.93825976585674</v>
       </c>
       <c r="U21">
         <v>44.48746055071426</v>
@@ -3098,43 +3098,43 @@
         <v>53</v>
       </c>
       <c r="C22">
+        <v>1.000606761191817</v>
+      </c>
+      <c r="D22">
+        <v>330.277234937932</v>
+      </c>
+      <c r="E22">
         <v>1453.739376453452</v>
       </c>
-      <c r="D22">
+      <c r="F22">
+        <v>1123.46214151552</v>
+      </c>
+      <c r="G22">
         <v>18288.45846411305</v>
       </c>
-      <c r="E22">
+      <c r="H22">
+        <v>1676.167619807982</v>
+      </c>
+      <c r="I22">
+        <v>37.93855703784446</v>
+      </c>
+      <c r="J22">
+        <v>6.329400347994989</v>
+      </c>
+      <c r="K22">
         <v>0.637840462111642</v>
       </c>
-      <c r="G22">
-        <v>0.00254</v>
-      </c>
-      <c r="H22">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>0.3750931834641644</v>
       </c>
-      <c r="I22">
-        <v>1123.46214151552</v>
-      </c>
-      <c r="J22">
-        <v>1676.167619807982</v>
-      </c>
-      <c r="K22">
+      <c r="O22">
         <v>0.642776434633223</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>0.4329900353937752</v>
-      </c>
-      <c r="O22">
-        <v>330.277234937932</v>
-      </c>
-      <c r="P22">
-        <v>1.000606761191817</v>
-      </c>
-      <c r="S22">
-        <v>37.93855703784446</v>
-      </c>
-      <c r="T22">
-        <v>6.329400347994989</v>
       </c>
       <c r="U22">
         <v>44.26795738583945</v>
@@ -3184,43 +3184,43 @@
         <v>54</v>
       </c>
       <c r="C23">
+        <v>1.000597686304057</v>
+      </c>
+      <c r="D23">
+        <v>330.2802303764361</v>
+      </c>
+      <c r="E23">
         <v>1453.738655311244</v>
       </c>
-      <c r="D23">
+      <c r="F23">
+        <v>1123.458424934808</v>
+      </c>
+      <c r="G23">
         <v>18569.11394470322</v>
       </c>
-      <c r="E23">
+      <c r="H23">
+        <v>1645.999338161761</v>
+      </c>
+      <c r="I23">
+        <v>36.50159434320183</v>
+      </c>
+      <c r="J23">
+        <v>6.763724902213125</v>
+      </c>
+      <c r="K23">
         <v>0.6390365750511405</v>
       </c>
-      <c r="G23">
-        <v>0.00239</v>
-      </c>
-      <c r="H23">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>0.3621410309202135</v>
       </c>
-      <c r="I23">
-        <v>1123.458424934808</v>
-      </c>
-      <c r="J23">
-        <v>1645.999338161761</v>
-      </c>
-      <c r="K23">
+      <c r="O23">
         <v>0.63861800298427</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>0.4079594547676894</v>
-      </c>
-      <c r="O23">
-        <v>330.2802303764361</v>
-      </c>
-      <c r="P23">
-        <v>1.000597686304057</v>
-      </c>
-      <c r="S23">
-        <v>36.50159434320183</v>
-      </c>
-      <c r="T23">
-        <v>6.763724902213125</v>
       </c>
       <c r="U23">
         <v>43.26531924541496</v>
@@ -3270,43 +3270,43 @@
         <v>55</v>
       </c>
       <c r="C24">
+        <v>1.000601819292883</v>
+      </c>
+      <c r="D24">
+        <v>330.2788661529505</v>
+      </c>
+      <c r="E24">
         <v>1453.740553645425</v>
       </c>
-      <c r="D24">
+      <c r="F24">
+        <v>1123.461687492475</v>
+      </c>
+      <c r="G24">
         <v>18495.4351100628</v>
       </c>
-      <c r="E24">
+      <c r="H24">
+        <v>1626.880842077587</v>
+      </c>
+      <c r="I24">
+        <v>34.44429681160523</v>
+      </c>
+      <c r="J24">
+        <v>5.432832342046397</v>
+      </c>
+      <c r="K24">
         <v>0.6403016130609793</v>
       </c>
-      <c r="G24">
-        <v>0.00226</v>
-      </c>
-      <c r="H24">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>0.3561850064184325</v>
       </c>
-      <c r="I24">
-        <v>1123.461687492475</v>
-      </c>
-      <c r="J24">
-        <v>1626.880842077587</v>
-      </c>
-      <c r="K24">
+      <c r="O24">
         <v>0.6523112097457038</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>0.3813640164162502</v>
-      </c>
-      <c r="O24">
-        <v>330.2788661529505</v>
-      </c>
-      <c r="P24">
-        <v>1.000601819292883</v>
-      </c>
-      <c r="S24">
-        <v>34.44429681160523</v>
-      </c>
-      <c r="T24">
-        <v>5.432832342046397</v>
       </c>
       <c r="U24">
         <v>39.87712915365163</v>
@@ -3356,43 +3356,43 @@
         <v>56</v>
       </c>
       <c r="C25">
+        <v>1.000598579430149</v>
+      </c>
+      <c r="D25">
+        <v>330.2799355710092</v>
+      </c>
+      <c r="E25">
         <v>1453.73866037546</v>
       </c>
-      <c r="D25">
+      <c r="F25">
+        <v>1123.458724804451</v>
+      </c>
+      <c r="G25">
         <v>18684.9674010454</v>
       </c>
-      <c r="E25">
+      <c r="H25">
+        <v>1644.386506427853</v>
+      </c>
+      <c r="I25">
+        <v>36.44584162027105</v>
+      </c>
+      <c r="J25">
+        <v>6.507932394973195</v>
+      </c>
+      <c r="K25">
         <v>0.6411997645734314</v>
       </c>
-      <c r="G25">
-        <v>0.0024</v>
-      </c>
-      <c r="H25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>0.3563308765171355</v>
       </c>
-      <c r="I25">
-        <v>1123.458724804451</v>
-      </c>
-      <c r="J25">
-        <v>1644.386506427853</v>
-      </c>
-      <c r="K25">
+      <c r="O25">
         <v>0.6362971947602367</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>0.3993079624911315</v>
-      </c>
-      <c r="O25">
-        <v>330.2799355710092</v>
-      </c>
-      <c r="P25">
-        <v>1.000598579430149</v>
-      </c>
-      <c r="S25">
-        <v>36.44584162027105</v>
-      </c>
-      <c r="T25">
-        <v>6.507932394973195</v>
       </c>
       <c r="U25">
         <v>42.95377401524425</v>
@@ -3442,43 +3442,43 @@
         <v>57</v>
       </c>
       <c r="C26">
+        <v>1.000612518727987</v>
+      </c>
+      <c r="D26">
+        <v>330.2753345188478</v>
+      </c>
+      <c r="E26">
         <v>1453.737002665839</v>
       </c>
-      <c r="D26">
+      <c r="F26">
+        <v>1123.461668146991</v>
+      </c>
+      <c r="G26">
         <v>18494.64016552515</v>
       </c>
-      <c r="E26">
+      <c r="H26">
+        <v>1659.576844761835</v>
+      </c>
+      <c r="I26">
+        <v>35.44108812869199</v>
+      </c>
+      <c r="J26">
+        <v>5.520034902242132</v>
+      </c>
+      <c r="K26">
         <v>0.6427367505953204</v>
       </c>
-      <c r="G26">
-        <v>0.00238</v>
-      </c>
-      <c r="H26">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>0.3553570705522187</v>
       </c>
-      <c r="I26">
-        <v>1123.461668146991</v>
-      </c>
-      <c r="J26">
-        <v>1659.576844761835</v>
-      </c>
-      <c r="K26">
+      <c r="O26">
         <v>0.6375499420621628</v>
       </c>
-      <c r="N26">
+      <c r="R26">
         <v>0.4247203726327782</v>
-      </c>
-      <c r="O26">
-        <v>330.2753345188478</v>
-      </c>
-      <c r="P26">
-        <v>1.000612518727987</v>
-      </c>
-      <c r="S26">
-        <v>35.44108812869199</v>
-      </c>
-      <c r="T26">
-        <v>5.520034902242132</v>
       </c>
       <c r="U26">
         <v>40.96112303093413</v>
@@ -3528,43 +3528,43 @@
         <v>58</v>
       </c>
       <c r="C27">
+        <v>1.000580617719203</v>
+      </c>
+      <c r="D27">
+        <v>330.2858645212896</v>
+      </c>
+      <c r="E27">
         <v>1453.740852721056</v>
       </c>
-      <c r="D27">
+      <c r="F27">
+        <v>1123.454988199766</v>
+      </c>
+      <c r="G27">
         <v>19150.70685184481</v>
       </c>
-      <c r="E27">
+      <c r="H27">
+        <v>1688.380429190626</v>
+      </c>
+      <c r="I27">
+        <v>39.06555438349822</v>
+      </c>
+      <c r="J27">
+        <v>7.00402691419991</v>
+      </c>
+      <c r="K27">
         <v>0.636034061575981</v>
       </c>
-      <c r="G27">
-        <v>0.0025</v>
-      </c>
-      <c r="H27">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>0.3716730784980711</v>
       </c>
-      <c r="I27">
-        <v>1123.454988199766</v>
-      </c>
-      <c r="J27">
-        <v>1688.380429190626</v>
-      </c>
-      <c r="K27">
+      <c r="O27">
         <v>0.6360760773305439</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>0.437322948731847</v>
-      </c>
-      <c r="O27">
-        <v>330.2858645212896</v>
-      </c>
-      <c r="P27">
-        <v>1.000580617719203</v>
-      </c>
-      <c r="S27">
-        <v>39.06555438349822</v>
-      </c>
-      <c r="T27">
-        <v>7.00402691419991</v>
       </c>
       <c r="U27">
         <v>46.06958129769814</v>
@@ -3614,43 +3614,43 @@
         <v>59</v>
       </c>
       <c r="C28">
+        <v>1.00057798864429</v>
+      </c>
+      <c r="D28">
+        <v>330.2867323659657</v>
+      </c>
+      <c r="E28">
         <v>1453.745460296296</v>
       </c>
-      <c r="D28">
+      <c r="F28">
+        <v>1123.45872793033</v>
+      </c>
+      <c r="G28">
         <v>20158.79496347053</v>
       </c>
-      <c r="E28">
+      <c r="H28">
+        <v>1675.412061299034</v>
+      </c>
+      <c r="I28">
+        <v>39.05500593174397</v>
+      </c>
+      <c r="J28">
+        <v>5.652987203490246</v>
+      </c>
+      <c r="K28">
         <v>0.6403939625062497</v>
       </c>
-      <c r="G28">
-        <v>0.00238</v>
-      </c>
-      <c r="H28">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>0.3518244171784917</v>
       </c>
-      <c r="I28">
-        <v>1123.45872793033</v>
-      </c>
-      <c r="J28">
-        <v>1675.412061299034</v>
-      </c>
-      <c r="K28">
+      <c r="O28">
         <v>0.649885093598368</v>
       </c>
-      <c r="N28">
+      <c r="R28">
         <v>0.4013456684829963</v>
-      </c>
-      <c r="O28">
-        <v>330.2867323659657</v>
-      </c>
-      <c r="P28">
-        <v>1.00057798864429</v>
-      </c>
-      <c r="S28">
-        <v>39.05500593174397</v>
-      </c>
-      <c r="T28">
-        <v>5.652987203490246</v>
       </c>
       <c r="U28">
         <v>44.70799313523422</v>
@@ -3700,43 +3700,43 @@
         <v>60</v>
       </c>
       <c r="C29">
+        <v>1.000553526514385</v>
+      </c>
+      <c r="D29">
+        <v>330.2948074131659</v>
+      </c>
+      <c r="E29">
         <v>1453.742003190631</v>
       </c>
-      <c r="D29">
+      <c r="F29">
+        <v>1123.447195777465</v>
+      </c>
+      <c r="G29">
         <v>19418.47734309192</v>
       </c>
-      <c r="E29">
+      <c r="H29">
+        <v>1690.207276342964</v>
+      </c>
+      <c r="I29">
+        <v>38.27660230814617</v>
+      </c>
+      <c r="J29">
+        <v>8.366725986763655</v>
+      </c>
+      <c r="K29">
         <v>0.6387030297250376</v>
       </c>
-      <c r="G29">
-        <v>0.00242</v>
-      </c>
-      <c r="H29">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>0.3641970558611853</v>
       </c>
-      <c r="I29">
-        <v>1123.447195777465</v>
-      </c>
-      <c r="J29">
-        <v>1690.207276342964</v>
-      </c>
-      <c r="K29">
+      <c r="O29">
         <v>0.6381549481990811</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>0.3843214811472281</v>
-      </c>
-      <c r="O29">
-        <v>330.2948074131659</v>
-      </c>
-      <c r="P29">
-        <v>1.000553526514385</v>
-      </c>
-      <c r="S29">
-        <v>38.27660230814617</v>
-      </c>
-      <c r="T29">
-        <v>8.366725986763655</v>
       </c>
       <c r="U29">
         <v>46.64332829490982</v>
@@ -3786,43 +3786,43 @@
         <v>61</v>
       </c>
       <c r="C30">
+        <v>1.000620779308822</v>
+      </c>
+      <c r="D30">
+        <v>330.2726079453498</v>
+      </c>
+      <c r="E30">
         <v>1453.743555860909</v>
       </c>
-      <c r="D30">
+      <c r="F30">
+        <v>1123.470947915559</v>
+      </c>
+      <c r="G30">
         <v>20886.2704388602</v>
       </c>
-      <c r="E30">
+      <c r="H30">
+        <v>1688.33430634484</v>
+      </c>
+      <c r="I30">
+        <v>40.87737156824303</v>
+      </c>
+      <c r="J30">
+        <v>5.459039059545483</v>
+      </c>
+      <c r="K30">
         <v>0.6367836192465512</v>
       </c>
-      <c r="G30">
-        <v>0.00239</v>
-      </c>
-      <c r="H30">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>0.3570293179268914</v>
       </c>
-      <c r="I30">
-        <v>1123.470947915559</v>
-      </c>
-      <c r="J30">
-        <v>1688.33430634484</v>
-      </c>
-      <c r="K30">
+      <c r="O30">
         <v>0.6525003615373068</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>0.3842850175686113</v>
-      </c>
-      <c r="O30">
-        <v>330.2726079453498</v>
-      </c>
-      <c r="P30">
-        <v>1.000620779308822</v>
-      </c>
-      <c r="S30">
-        <v>40.87737156824303</v>
-      </c>
-      <c r="T30">
-        <v>5.459039059545483</v>
       </c>
       <c r="U30">
         <v>46.33641062778852</v>
@@ -3872,43 +3872,43 @@
         <v>62</v>
       </c>
       <c r="C31">
+        <v>1.000600228785021</v>
+      </c>
+      <c r="D31">
+        <v>330.2793911489659</v>
+      </c>
+      <c r="E31">
         <v>1453.737759896571</v>
       </c>
-      <c r="D31">
+      <c r="F31">
+        <v>1123.458368747605</v>
+      </c>
+      <c r="G31">
         <v>18991.16552212264</v>
       </c>
-      <c r="E31">
+      <c r="H31">
+        <v>1761.020904559934</v>
+      </c>
+      <c r="I31">
+        <v>39.59707161955739</v>
+      </c>
+      <c r="J31">
+        <v>7.122035432543965</v>
+      </c>
+      <c r="K31">
         <v>0.6415149303703758</v>
       </c>
-      <c r="G31">
-        <v>0.00261</v>
-      </c>
-      <c r="H31">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>0.3643132612682989</v>
       </c>
-      <c r="I31">
-        <v>1123.458368747605</v>
-      </c>
-      <c r="J31">
-        <v>1761.020904559934</v>
-      </c>
-      <c r="K31">
+      <c r="O31">
         <v>0.6399956843717315</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>0.4233980926158432</v>
-      </c>
-      <c r="O31">
-        <v>330.2793911489659</v>
-      </c>
-      <c r="P31">
-        <v>1.000600228785021</v>
-      </c>
-      <c r="S31">
-        <v>39.59707161955739</v>
-      </c>
-      <c r="T31">
-        <v>7.122035432543965</v>
       </c>
       <c r="U31">
         <v>46.71910705210136</v>
@@ -3958,43 +3958,43 @@
         <v>63</v>
       </c>
       <c r="C32">
+        <v>1.000587755769021</v>
+      </c>
+      <c r="D32">
+        <v>330.2835083092116</v>
+      </c>
+      <c r="E32">
         <v>1453.738431080018</v>
       </c>
-      <c r="D32">
+      <c r="F32">
+        <v>1123.454922770807</v>
+      </c>
+      <c r="G32">
         <v>18879.44534253461</v>
       </c>
-      <c r="E32">
+      <c r="H32">
+        <v>1729.339257380252</v>
+      </c>
+      <c r="I32">
+        <v>38.7481096002211</v>
+      </c>
+      <c r="J32">
+        <v>5.926158362138431</v>
+      </c>
+      <c r="K32">
         <v>0.6381729103320983</v>
       </c>
-      <c r="G32">
-        <v>0.00256</v>
-      </c>
-      <c r="H32">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>0.3685464071306862</v>
       </c>
-      <c r="I32">
-        <v>1123.454922770807</v>
-      </c>
-      <c r="J32">
-        <v>1729.339257380252</v>
-      </c>
-      <c r="K32">
+      <c r="O32">
         <v>0.6457745599015159</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>0.3865899560942471</v>
-      </c>
-      <c r="O32">
-        <v>330.2835083092116</v>
-      </c>
-      <c r="P32">
-        <v>1.000587755769021</v>
-      </c>
-      <c r="S32">
-        <v>38.7481096002211</v>
-      </c>
-      <c r="T32">
-        <v>5.926158362138431</v>
       </c>
       <c r="U32">
         <v>44.67426796235953</v>
@@ -4044,43 +4044,43 @@
         <v>64</v>
       </c>
       <c r="C33">
+        <v>1.000622898017246</v>
+      </c>
+      <c r="D33">
+        <v>330.2719086295954</v>
+      </c>
+      <c r="E33">
         <v>1453.741318483434</v>
       </c>
-      <c r="D33">
+      <c r="F33">
+        <v>1123.469409853838</v>
+      </c>
+      <c r="G33">
         <v>18223.88989500808</v>
       </c>
-      <c r="E33">
+      <c r="H33">
+        <v>1709.479571761749</v>
+      </c>
+      <c r="I33">
+        <v>35.54793734453314</v>
+      </c>
+      <c r="J33">
+        <v>6.202085034926744</v>
+      </c>
+      <c r="K33">
         <v>0.6404384954704703</v>
       </c>
-      <c r="G33">
-        <v>0.00243</v>
-      </c>
-      <c r="H33">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>0.3693562173975396</v>
       </c>
-      <c r="I33">
-        <v>1123.469409853838</v>
-      </c>
-      <c r="J33">
-        <v>1709.479571761749</v>
-      </c>
-      <c r="K33">
+      <c r="O33">
         <v>0.6379747305292093</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>0.3818493624541517</v>
-      </c>
-      <c r="O33">
-        <v>330.2719086295954</v>
-      </c>
-      <c r="P33">
-        <v>1.000622898017246</v>
-      </c>
-      <c r="S33">
-        <v>35.54793734453314</v>
-      </c>
-      <c r="T33">
-        <v>6.202085034926744</v>
       </c>
       <c r="U33">
         <v>41.75002237945989</v>
@@ -4130,43 +4130,43 @@
         <v>65</v>
       </c>
       <c r="C34">
+        <v>1.000586323772806</v>
+      </c>
+      <c r="D34">
+        <v>330.2839809967975</v>
+      </c>
+      <c r="E34">
         <v>1453.739610963311</v>
       </c>
-      <c r="D34">
+      <c r="F34">
+        <v>1123.455629966514</v>
+      </c>
+      <c r="G34">
         <v>18629.21458136037</v>
       </c>
-      <c r="E34">
+      <c r="H34">
+        <v>1791.763060371588</v>
+      </c>
+      <c r="I34">
+        <v>37.22954287336463</v>
+      </c>
+      <c r="J34">
+        <v>6.610326948204199</v>
+      </c>
+      <c r="K34">
         <v>0.640564166161637</v>
       </c>
-      <c r="G34">
-        <v>0.00246</v>
-      </c>
-      <c r="H34">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>0.3667634676023713</v>
       </c>
-      <c r="I34">
-        <v>1123.455629966514</v>
-      </c>
-      <c r="J34">
-        <v>1791.763060371588</v>
-      </c>
-      <c r="K34">
+      <c r="O34">
         <v>0.6335606853884286</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>0.4881945423337679</v>
-      </c>
-      <c r="O34">
-        <v>330.2839809967975</v>
-      </c>
-      <c r="P34">
-        <v>1.000586323772806</v>
-      </c>
-      <c r="S34">
-        <v>37.22954287336463</v>
-      </c>
-      <c r="T34">
-        <v>6.610326948204199</v>
       </c>
       <c r="U34">
         <v>43.83986982156883</v>
@@ -4216,43 +4216,43 @@
         <v>66</v>
       </c>
       <c r="C35">
+        <v>1.000604526303172</v>
+      </c>
+      <c r="D35">
+        <v>330.277972624823</v>
+      </c>
+      <c r="E35">
         <v>1453.738566803127</v>
       </c>
-      <c r="D35">
+      <c r="F35">
+        <v>1123.460594178305</v>
+      </c>
+      <c r="G35">
         <v>18669.51145434423</v>
       </c>
-      <c r="E35">
+      <c r="H35">
+        <v>1742.356359073385</v>
+      </c>
+      <c r="I35">
+        <v>36.89039336527933</v>
+      </c>
+      <c r="J35">
+        <v>5.837985334613959</v>
+      </c>
+      <c r="K35">
         <v>0.6386673390145148</v>
       </c>
-      <c r="G35">
-        <v>0.00246</v>
-      </c>
-      <c r="H35">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>0.3720123293482547</v>
       </c>
-      <c r="I35">
-        <v>1123.460594178305</v>
-      </c>
-      <c r="J35">
-        <v>1742.356359073385</v>
-      </c>
-      <c r="K35">
+      <c r="O35">
         <v>0.6501536333569539</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>0.3817484509563026</v>
-      </c>
-      <c r="O35">
-        <v>330.277972624823</v>
-      </c>
-      <c r="P35">
-        <v>1.000604526303172</v>
-      </c>
-      <c r="S35">
-        <v>36.89039336527933</v>
-      </c>
-      <c r="T35">
-        <v>5.837985334613959</v>
       </c>
       <c r="U35">
         <v>42.72837869989329</v>
@@ -4302,43 +4302,43 @@
         <v>67</v>
       </c>
       <c r="C36">
+        <v>1.000614722582733</v>
+      </c>
+      <c r="D36">
+        <v>330.2746070871531</v>
+      </c>
+      <c r="E36">
         <v>1453.739434935158</v>
       </c>
-      <c r="D36">
+      <c r="F36">
+        <v>1123.464827848005</v>
+      </c>
+      <c r="G36">
         <v>18166.7855043674</v>
       </c>
-      <c r="E36">
+      <c r="H36">
+        <v>1725.306866571046</v>
+      </c>
+      <c r="I36">
+        <v>36.38565257207384</v>
+      </c>
+      <c r="J36">
+        <v>7.592007449797196</v>
+      </c>
+      <c r="K36">
         <v>0.6406170837030672</v>
       </c>
-      <c r="G36">
-        <v>0.00251</v>
-      </c>
-      <c r="H36">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>0.3695186092841876</v>
       </c>
-      <c r="I36">
-        <v>1123.464827848005</v>
-      </c>
-      <c r="J36">
-        <v>1725.306866571046</v>
-      </c>
-      <c r="K36">
+      <c r="O36">
         <v>0.6370507392243671</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>0.3784720017336598</v>
-      </c>
-      <c r="O36">
-        <v>330.2746070871531</v>
-      </c>
-      <c r="P36">
-        <v>1.000614722582733</v>
-      </c>
-      <c r="S36">
-        <v>36.38565257207384</v>
-      </c>
-      <c r="T36">
-        <v>7.592007449797196</v>
       </c>
       <c r="U36">
         <v>43.97766002187104</v>
@@ -4388,43 +4388,43 @@
         <v>68</v>
       </c>
       <c r="C37">
+        <v>1.000613774469955</v>
+      </c>
+      <c r="D37">
+        <v>330.2749200326505</v>
+      </c>
+      <c r="E37">
         <v>1453.735503663641</v>
       </c>
-      <c r="D37">
+      <c r="F37">
+        <v>1123.460583630991</v>
+      </c>
+      <c r="G37">
         <v>18668.96682415135</v>
       </c>
-      <c r="E37">
+      <c r="H37">
+        <v>1762.525959372558</v>
+      </c>
+      <c r="I37">
+        <v>36.6612944532021</v>
+      </c>
+      <c r="J37">
+        <v>7.51752042466079</v>
+      </c>
+      <c r="K37">
         <v>0.6397995200522486</v>
       </c>
-      <c r="G37">
-        <v>0.00245</v>
-      </c>
-      <c r="H37">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>0.3651629395321497</v>
       </c>
-      <c r="I37">
-        <v>1123.460583630991</v>
-      </c>
-      <c r="J37">
-        <v>1762.525959372558</v>
-      </c>
-      <c r="K37">
+      <c r="O37">
         <v>0.6498657168677647</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>0.3819740708764972</v>
-      </c>
-      <c r="O37">
-        <v>330.2749200326505</v>
-      </c>
-      <c r="P37">
-        <v>1.000613774469955</v>
-      </c>
-      <c r="S37">
-        <v>36.6612944532021</v>
-      </c>
-      <c r="T37">
-        <v>7.51752042466079</v>
       </c>
       <c r="U37">
         <v>44.17881487786289</v>
@@ -4474,43 +4474,43 @@
         <v>69</v>
       </c>
       <c r="C38">
+        <v>1.000601675562162</v>
+      </c>
+      <c r="D38">
+        <v>330.278913595625</v>
+      </c>
+      <c r="E38">
         <v>1453.736690315224</v>
       </c>
-      <c r="D38">
+      <c r="F38">
+        <v>1123.457776719599</v>
+      </c>
+      <c r="G38">
         <v>18351.1610079807</v>
       </c>
-      <c r="E38">
+      <c r="H38">
+        <v>1737.443040676707</v>
+      </c>
+      <c r="I38">
+        <v>35.79990544913402</v>
+      </c>
+      <c r="J38">
+        <v>6.306363202127008</v>
+      </c>
+      <c r="K38">
         <v>0.6397071548246022</v>
       </c>
-      <c r="G38">
-        <v>0.00245</v>
-      </c>
-      <c r="H38">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>0.3683431403798139</v>
       </c>
-      <c r="I38">
-        <v>1123.457776719599</v>
-      </c>
-      <c r="J38">
-        <v>1737.443040676707</v>
-      </c>
-      <c r="K38">
+      <c r="O38">
         <v>0.6420005138166532</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>0.3998998518483278</v>
-      </c>
-      <c r="O38">
-        <v>330.278913595625</v>
-      </c>
-      <c r="P38">
-        <v>1.000601675562162</v>
-      </c>
-      <c r="S38">
-        <v>35.79990544913402</v>
-      </c>
-      <c r="T38">
-        <v>6.306363202127008</v>
       </c>
       <c r="U38">
         <v>42.10626865126103</v>
@@ -4560,43 +4560,43 @@
         <v>70</v>
       </c>
       <c r="C39">
+        <v>1.000628782368502</v>
+      </c>
+      <c r="D39">
+        <v>330.2699664149054</v>
+      </c>
+      <c r="E39">
         <v>1453.73465288152</v>
       </c>
-      <c r="D39">
+      <c r="F39">
+        <v>1123.464686466615</v>
+      </c>
+      <c r="G39">
         <v>19193.81893124843</v>
       </c>
-      <c r="E39">
+      <c r="H39">
+        <v>1752.190290718716</v>
+      </c>
+      <c r="I39">
+        <v>39.37458405614138</v>
+      </c>
+      <c r="J39">
+        <v>6.174269964294757</v>
+      </c>
+      <c r="K39">
         <v>0.6391467819407706</v>
       </c>
-      <c r="G39">
-        <v>0.00252</v>
-      </c>
-      <c r="H39">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>0.3589793293654308</v>
       </c>
-      <c r="I39">
-        <v>1123.464686466615</v>
-      </c>
-      <c r="J39">
-        <v>1752.190290718716</v>
-      </c>
-      <c r="K39">
+      <c r="O39">
         <v>0.6551581705020401</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>0.3583890031087697</v>
-      </c>
-      <c r="O39">
-        <v>330.2699664149054</v>
-      </c>
-      <c r="P39">
-        <v>1.000628782368502</v>
-      </c>
-      <c r="S39">
-        <v>39.37458405614138</v>
-      </c>
-      <c r="T39">
-        <v>6.174269964294757</v>
       </c>
       <c r="U39">
         <v>45.54885402043614</v>
@@ -4646,43 +4646,43 @@
         <v>71</v>
       </c>
       <c r="C40">
+        <v>1.000595763244163</v>
+      </c>
+      <c r="D40">
+        <v>330.2808651469279</v>
+      </c>
+      <c r="E40">
         <v>1453.734162914384</v>
       </c>
-      <c r="D40">
+      <c r="F40">
+        <v>1123.453297767456</v>
+      </c>
+      <c r="G40">
         <v>18659.54395152058</v>
       </c>
-      <c r="E40">
+      <c r="H40">
+        <v>1728.860159360447</v>
+      </c>
+      <c r="I40">
+        <v>38.08365266818282</v>
+      </c>
+      <c r="J40">
+        <v>6.585409929930505</v>
+      </c>
+      <c r="K40">
         <v>0.6399511821952573</v>
       </c>
-      <c r="G40">
-        <v>0.00258</v>
-      </c>
-      <c r="H40">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>0.3746365249642707</v>
       </c>
-      <c r="I40">
-        <v>1123.453297767456</v>
-      </c>
-      <c r="J40">
-        <v>1728.860159360447</v>
-      </c>
-      <c r="K40">
+      <c r="O40">
         <v>0.6376817193466986</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>0.3944199077935307</v>
-      </c>
-      <c r="O40">
-        <v>330.2808651469279</v>
-      </c>
-      <c r="P40">
-        <v>1.000595763244163</v>
-      </c>
-      <c r="S40">
-        <v>38.08365266818282</v>
-      </c>
-      <c r="T40">
-        <v>6.585409929930505</v>
       </c>
       <c r="U40">
         <v>44.66906259811333</v>
@@ -4732,43 +4732,43 @@
         <v>72</v>
       </c>
       <c r="C41">
+        <v>1.00060731712233</v>
+      </c>
+      <c r="D41">
+        <v>330.2770514381818</v>
+      </c>
+      <c r="E41">
         <v>1453.735965947825</v>
       </c>
-      <c r="D41">
+      <c r="F41">
+        <v>1123.458914509643</v>
+      </c>
+      <c r="G41">
         <v>19389.56251182578</v>
       </c>
-      <c r="E41">
+      <c r="H41">
+        <v>1704.161274707954</v>
+      </c>
+      <c r="I41">
+        <v>37.91549867406486</v>
+      </c>
+      <c r="J41">
+        <v>7.427228211319646</v>
+      </c>
+      <c r="K41">
         <v>0.6408093430667287</v>
       </c>
-      <c r="G41">
-        <v>0.00243</v>
-      </c>
-      <c r="H41">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>0.3519716426080026</v>
       </c>
-      <c r="I41">
-        <v>1123.458914509643</v>
-      </c>
-      <c r="J41">
-        <v>1704.161274707954</v>
-      </c>
-      <c r="K41">
+      <c r="O41">
         <v>0.636687309011875</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>0.3913462581511846</v>
-      </c>
-      <c r="O41">
-        <v>330.2770514381818</v>
-      </c>
-      <c r="P41">
-        <v>1.00060731712233</v>
-      </c>
-      <c r="S41">
-        <v>37.91549867406486</v>
-      </c>
-      <c r="T41">
-        <v>7.427228211319646</v>
       </c>
       <c r="U41">
         <v>45.3427268853845</v>
@@ -4818,43 +4818,43 @@
         <v>73</v>
       </c>
       <c r="C42">
+        <v>1.00058032598012</v>
+      </c>
+      <c r="D42">
+        <v>330.2859608226984</v>
+      </c>
+      <c r="E42">
         <v>1453.73682507813</v>
       </c>
-      <c r="D42">
+      <c r="F42">
+        <v>1123.450864255432</v>
+      </c>
+      <c r="G42">
         <v>19221.65670967811</v>
       </c>
-      <c r="E42">
+      <c r="H42">
+        <v>1716.758713359258</v>
+      </c>
+      <c r="I42">
+        <v>38.34948562024935</v>
+      </c>
+      <c r="J42">
+        <v>7.143567515748337</v>
+      </c>
+      <c r="K42">
         <v>0.6399960728857658</v>
       </c>
-      <c r="G42">
-        <v>0.00242</v>
-      </c>
-      <c r="H42">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>0.3572161708215383</v>
       </c>
-      <c r="I42">
-        <v>1123.450864255432</v>
-      </c>
-      <c r="J42">
-        <v>1716.758713359258</v>
-      </c>
-      <c r="K42">
+      <c r="O42">
         <v>0.6419838669584762</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>0.3827250985069419</v>
-      </c>
-      <c r="O42">
-        <v>330.2859608226984</v>
-      </c>
-      <c r="P42">
-        <v>1.00058032598012</v>
-      </c>
-      <c r="S42">
-        <v>38.34948562024935</v>
-      </c>
-      <c r="T42">
-        <v>7.143567515748337</v>
       </c>
       <c r="U42">
         <v>45.49305313599768</v>
@@ -4904,43 +4904,43 @@
         <v>74</v>
       </c>
       <c r="C43">
+        <v>1.000618960284165</v>
+      </c>
+      <c r="D43">
+        <v>330.2732083477417</v>
+      </c>
+      <c r="E43">
         <v>1453.738300668051</v>
       </c>
-      <c r="D43">
+      <c r="F43">
+        <v>1123.465092320309</v>
+      </c>
+      <c r="G43">
         <v>19281.20088165096</v>
       </c>
-      <c r="E43">
+      <c r="H43">
+        <v>1778.329306754464</v>
+      </c>
+      <c r="I43">
+        <v>38.5805506159518</v>
+      </c>
+      <c r="J43">
+        <v>7.962942565551979</v>
+      </c>
+      <c r="K43">
         <v>0.6412339708134065</v>
       </c>
-      <c r="G43">
-        <v>0.00245</v>
-      </c>
-      <c r="H43">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>0.3575412700871828</v>
       </c>
-      <c r="I43">
-        <v>1123.465092320309</v>
-      </c>
-      <c r="J43">
-        <v>1778.329306754464</v>
-      </c>
-      <c r="K43">
+      <c r="O43">
         <v>0.6455644554492332</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>0.4248396900586177</v>
-      </c>
-      <c r="O43">
-        <v>330.2732083477417</v>
-      </c>
-      <c r="P43">
-        <v>1.000618960284165</v>
-      </c>
-      <c r="S43">
-        <v>38.5805506159518</v>
-      </c>
-      <c r="T43">
-        <v>7.962942565551979</v>
       </c>
       <c r="U43">
         <v>46.54349318150378</v>
@@ -4990,43 +4990,43 @@
         <v>75</v>
       </c>
       <c r="C44">
+        <v>1.000647967296329</v>
+      </c>
+      <c r="D44">
+        <v>330.2636343124316</v>
+      </c>
+      <c r="E44">
         <v>1453.735055346313</v>
       </c>
-      <c r="D44">
+      <c r="F44">
+        <v>1123.471421033881</v>
+      </c>
+      <c r="G44">
         <v>19746.04739513003</v>
       </c>
-      <c r="E44">
+      <c r="H44">
+        <v>1735.568345714825</v>
+      </c>
+      <c r="I44">
+        <v>40.29858455359906</v>
+      </c>
+      <c r="J44">
+        <v>6.809458399559269</v>
+      </c>
+      <c r="K44">
         <v>0.6382556814746984</v>
       </c>
-      <c r="G44">
-        <v>0.00248</v>
-      </c>
-      <c r="H44">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>0.3646776220993351</v>
       </c>
-      <c r="I44">
-        <v>1123.471421033881</v>
-      </c>
-      <c r="J44">
-        <v>1735.568345714825</v>
-      </c>
-      <c r="K44">
+      <c r="O44">
         <v>0.6467228552957404</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>0.3478635800868016</v>
-      </c>
-      <c r="O44">
-        <v>330.2636343124316</v>
-      </c>
-      <c r="P44">
-        <v>1.000647967296329</v>
-      </c>
-      <c r="S44">
-        <v>40.29858455359906</v>
-      </c>
-      <c r="T44">
-        <v>6.809458399559269</v>
       </c>
       <c r="U44">
         <v>47.10804295315832</v>
@@ -5076,43 +5076,43 @@
         <v>76</v>
       </c>
       <c r="C45">
+        <v>1.000618857816549</v>
+      </c>
+      <c r="D45">
+        <v>330.2732421691196</v>
+      </c>
+      <c r="E45">
         <v>1453.736723993024</v>
       </c>
-      <c r="D45">
+      <c r="F45">
+        <v>1123.463481823904</v>
+      </c>
+      <c r="G45">
         <v>18510.92809619255</v>
       </c>
-      <c r="E45">
+      <c r="H45">
+        <v>1751.185920955618</v>
+      </c>
+      <c r="I45">
+        <v>35.18396884946028</v>
+      </c>
+      <c r="J45">
+        <v>7.792183835649608</v>
+      </c>
+      <c r="K45">
         <v>0.637972128654774</v>
       </c>
-      <c r="G45">
-        <v>0.00238</v>
-      </c>
-      <c r="H45">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>0.3680919070692401</v>
       </c>
-      <c r="I45">
-        <v>1123.463481823904</v>
-      </c>
-      <c r="J45">
-        <v>1751.185920955618</v>
-      </c>
-      <c r="K45">
+      <c r="O45">
         <v>0.6332176117409947</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>0.4377921290572183</v>
-      </c>
-      <c r="O45">
-        <v>330.2732421691196</v>
-      </c>
-      <c r="P45">
-        <v>1.000618857816549</v>
-      </c>
-      <c r="S45">
-        <v>35.18396884946028</v>
-      </c>
-      <c r="T45">
-        <v>7.792183835649608</v>
       </c>
       <c r="U45">
         <v>42.97615268510989</v>
@@ -5162,43 +5162,43 @@
         <v>77</v>
       </c>
       <c r="C46">
+        <v>1.000622385655737</v>
+      </c>
+      <c r="D46">
+        <v>330.2720777429552</v>
+      </c>
+      <c r="E46">
         <v>1453.736720676146</v>
       </c>
-      <c r="D46">
+      <c r="F46">
+        <v>1123.46464293319</v>
+      </c>
+      <c r="G46">
         <v>18391.15498763144</v>
       </c>
-      <c r="E46">
+      <c r="H46">
+        <v>1751.632509683235</v>
+      </c>
+      <c r="I46">
+        <v>37.01498450835839</v>
+      </c>
+      <c r="J46">
+        <v>7.112915658045463</v>
+      </c>
+      <c r="K46">
         <v>0.6401879175392938</v>
       </c>
-      <c r="G46">
-        <v>0.00254</v>
-      </c>
-      <c r="H46">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>0.3776462133311871</v>
       </c>
-      <c r="I46">
-        <v>1123.46464293319</v>
-      </c>
-      <c r="J46">
-        <v>1751.632509683235</v>
-      </c>
-      <c r="K46">
+      <c r="O46">
         <v>0.6324893802607054</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>0.404621071516552</v>
-      </c>
-      <c r="O46">
-        <v>330.2720777429552</v>
-      </c>
-      <c r="P46">
-        <v>1.000622385655737</v>
-      </c>
-      <c r="S46">
-        <v>37.01498450835839</v>
-      </c>
-      <c r="T46">
-        <v>7.112915658045463</v>
       </c>
       <c r="U46">
         <v>44.12790016640385</v>
@@ -5248,43 +5248,43 @@
         <v>78</v>
       </c>
       <c r="C47">
+        <v>1.000589095157423</v>
+      </c>
+      <c r="D47">
+        <v>330.2830661917603</v>
+      </c>
+      <c r="E47">
         <v>1453.737672635668</v>
       </c>
-      <c r="D47">
+      <c r="F47">
+        <v>1123.454606443908</v>
+      </c>
+      <c r="G47">
         <v>18401.35284459989</v>
       </c>
-      <c r="E47">
+      <c r="H47">
+        <v>1749.479830698358</v>
+      </c>
+      <c r="I47">
+        <v>38.04140192438233</v>
+      </c>
+      <c r="J47">
+        <v>7.512301203808233</v>
+      </c>
+      <c r="K47">
         <v>0.6398270510630096</v>
       </c>
-      <c r="G47">
-        <v>0.00258</v>
-      </c>
-      <c r="H47">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>0.3661424949401877</v>
       </c>
-      <c r="I47">
-        <v>1123.454606443908</v>
-      </c>
-      <c r="J47">
-        <v>1749.479830698358</v>
-      </c>
-      <c r="K47">
+      <c r="O47">
         <v>0.6413882938892823</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>0.4158790862269062</v>
-      </c>
-      <c r="O47">
-        <v>330.2830661917603</v>
-      </c>
-      <c r="P47">
-        <v>1.000589095157423</v>
-      </c>
-      <c r="S47">
-        <v>38.04140192438233</v>
-      </c>
-      <c r="T47">
-        <v>7.512301203808233</v>
       </c>
       <c r="U47">
         <v>45.55370312819056</v>
@@ -5334,43 +5334,43 @@
         <v>79</v>
       </c>
       <c r="C48">
+        <v>1.000624371059823</v>
+      </c>
+      <c r="D48">
+        <v>330.2714224285817</v>
+      </c>
+      <c r="E48">
         <v>1453.735501169071</v>
       </c>
-      <c r="D48">
+      <c r="F48">
+        <v>1123.46407874049</v>
+      </c>
+      <c r="G48">
         <v>18534.23547290455</v>
       </c>
-      <c r="E48">
+      <c r="H48">
+        <v>1704.540102551262</v>
+      </c>
+      <c r="I48">
+        <v>37.84454845287728</v>
+      </c>
+      <c r="J48">
+        <v>7.256236092066935</v>
+      </c>
+      <c r="K48">
         <v>0.637404518807908</v>
       </c>
-      <c r="G48">
-        <v>0.00255</v>
-      </c>
-      <c r="H48">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>0.3743221175058636</v>
       </c>
-      <c r="I48">
-        <v>1123.46407874049</v>
-      </c>
-      <c r="J48">
-        <v>1704.540102551262</v>
-      </c>
-      <c r="K48">
+      <c r="O48">
         <v>0.6407818496481071</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>0.3971430464570929</v>
-      </c>
-      <c r="O48">
-        <v>330.2714224285817</v>
-      </c>
-      <c r="P48">
-        <v>1.000624371059823</v>
-      </c>
-      <c r="S48">
-        <v>37.84454845287728</v>
-      </c>
-      <c r="T48">
-        <v>7.256236092066935</v>
       </c>
       <c r="U48">
         <v>45.10078454494422</v>
@@ -5420,43 +5420,43 @@
         <v>80</v>
       </c>
       <c r="C49">
+        <v>1.000612359287979</v>
+      </c>
+      <c r="D49">
+        <v>330.2753871457232</v>
+      </c>
+      <c r="E49">
         <v>1453.738192522406</v>
       </c>
-      <c r="D49">
+      <c r="F49">
+        <v>1123.462805376683</v>
+      </c>
+      <c r="G49">
         <v>18450.91358135488</v>
       </c>
-      <c r="E49">
+      <c r="H49">
+        <v>1788.490110115961</v>
+      </c>
+      <c r="I49">
+        <v>35.7115709918587</v>
+      </c>
+      <c r="J49">
+        <v>19.61839842206926</v>
+      </c>
+      <c r="K49">
         <v>0.6384859413211101</v>
       </c>
-      <c r="G49">
-        <v>0.00238</v>
-      </c>
-      <c r="H49">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>0.3654071376132382</v>
       </c>
-      <c r="I49">
-        <v>1123.462805376683</v>
-      </c>
-      <c r="J49">
-        <v>1788.490110115961</v>
-      </c>
-      <c r="K49">
+      <c r="O49">
         <v>0.6304778942123817</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>0.5243120712174508</v>
-      </c>
-      <c r="O49">
-        <v>330.2753871457232</v>
-      </c>
-      <c r="P49">
-        <v>1.000612359287979</v>
-      </c>
-      <c r="S49">
-        <v>35.7115709918587</v>
-      </c>
-      <c r="T49">
-        <v>19.61839842206926</v>
       </c>
       <c r="U49">
         <v>55.32996941392796</v>
@@ -5506,43 +5506,43 @@
         <v>81</v>
       </c>
       <c r="C50">
+        <v>1.000571653883383</v>
+      </c>
+      <c r="D50">
+        <v>330.2888234580651</v>
+      </c>
+      <c r="E50">
         <v>1453.736766652978</v>
       </c>
-      <c r="D50">
+      <c r="F50">
+        <v>1123.447943194913</v>
+      </c>
+      <c r="G50">
         <v>18440.83906881664</v>
       </c>
-      <c r="E50">
+      <c r="H50">
+        <v>1679.432277121367</v>
+      </c>
+      <c r="I50">
+        <v>35.13886564007415</v>
+      </c>
+      <c r="J50">
+        <v>6.964700253684216</v>
+      </c>
+      <c r="K50">
         <v>0.6432819493557959</v>
       </c>
-      <c r="G50">
-        <v>0.00243</v>
-      </c>
-      <c r="H50">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
         <v>0.3652400510975462</v>
       </c>
-      <c r="I50">
-        <v>1123.447943194913</v>
-      </c>
-      <c r="J50">
-        <v>1679.432277121367</v>
-      </c>
-      <c r="K50">
+      <c r="O50">
         <v>0.6348921206149721</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>0.4363311152083352</v>
-      </c>
-      <c r="O50">
-        <v>330.2888234580651</v>
-      </c>
-      <c r="P50">
-        <v>1.000571653883383</v>
-      </c>
-      <c r="S50">
-        <v>35.13886564007415</v>
-      </c>
-      <c r="T50">
-        <v>6.964700253684216</v>
       </c>
       <c r="U50">
         <v>42.10356589375836</v>
@@ -5592,43 +5592,43 @@
         <v>82</v>
       </c>
       <c r="C51">
+        <v>1.000607644710139</v>
+      </c>
+      <c r="D51">
+        <v>330.2769433091503</v>
+      </c>
+      <c r="E51">
         <v>1453.741502416085</v>
       </c>
-      <c r="D51">
+      <c r="F51">
+        <v>1123.464559106935</v>
+      </c>
+      <c r="G51">
         <v>18825.0883572272</v>
       </c>
-      <c r="E51">
+      <c r="H51">
+        <v>1681.84896162239</v>
+      </c>
+      <c r="I51">
+        <v>36.92069350450095</v>
+      </c>
+      <c r="J51">
+        <v>6.636545806191129</v>
+      </c>
+      <c r="K51">
         <v>0.6344539493931804</v>
       </c>
-      <c r="G51">
-        <v>0.00236</v>
-      </c>
-      <c r="H51">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>0.3640390850860786</v>
       </c>
-      <c r="I51">
-        <v>1123.464559106935</v>
-      </c>
-      <c r="J51">
-        <v>1681.84896162239</v>
-      </c>
-      <c r="K51">
+      <c r="O51">
         <v>0.648964710111689</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>0.3971992277174212</v>
-      </c>
-      <c r="O51">
-        <v>330.2769433091503</v>
-      </c>
-      <c r="P51">
-        <v>1.000607644710139</v>
-      </c>
-      <c r="S51">
-        <v>36.92069350450095</v>
-      </c>
-      <c r="T51">
-        <v>6.636545806191129</v>
       </c>
       <c r="U51">
         <v>43.55723931069208</v>
@@ -5678,43 +5678,43 @@
         <v>83</v>
       </c>
       <c r="C52">
+        <v>1.000594015592527</v>
+      </c>
+      <c r="D52">
+        <v>330.2814420201507</v>
+      </c>
+      <c r="E52">
         <v>1453.739621466288</v>
       </c>
-      <c r="D52">
+      <c r="F52">
+        <v>1123.458179446137</v>
+      </c>
+      <c r="G52">
         <v>18737.38580755598</v>
       </c>
-      <c r="E52">
+      <c r="H52">
+        <v>1712.690814696037</v>
+      </c>
+      <c r="I52">
+        <v>36.28825572591655</v>
+      </c>
+      <c r="J52">
+        <v>5.969726687550049</v>
+      </c>
+      <c r="K52">
         <v>0.6386027625777997</v>
       </c>
-      <c r="G52">
-        <v>0.00234</v>
-      </c>
-      <c r="H52">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
         <v>0.3573824236867441</v>
       </c>
-      <c r="I52">
-        <v>1123.458179446137</v>
-      </c>
-      <c r="J52">
-        <v>1712.690814696037</v>
-      </c>
-      <c r="K52">
+      <c r="O52">
         <v>0.6330523681198936</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>0.4323806424818045</v>
-      </c>
-      <c r="O52">
-        <v>330.2814420201507</v>
-      </c>
-      <c r="P52">
-        <v>1.000594015592527</v>
-      </c>
-      <c r="S52">
-        <v>36.28825572591655</v>
-      </c>
-      <c r="T52">
-        <v>5.969726687550049</v>
       </c>
       <c r="U52">
         <v>42.2579824134666</v>
@@ -5764,43 +5764,43 @@
         <v>84</v>
       </c>
       <c r="C53">
+        <v>1.000592000561607</v>
+      </c>
+      <c r="D53">
+        <v>330.2821071537091</v>
+      </c>
+      <c r="E53">
         <v>1453.739009240468</v>
       </c>
-      <c r="D53">
+      <c r="F53">
+        <v>1123.456902086759</v>
+      </c>
+      <c r="G53">
         <v>19165.87050482735</v>
       </c>
-      <c r="E53">
+      <c r="H53">
+        <v>1767.18466581698</v>
+      </c>
+      <c r="I53">
+        <v>36.5171746542336</v>
+      </c>
+      <c r="J53">
+        <v>7.592644960559123</v>
+      </c>
+      <c r="K53">
         <v>0.6348869545491639</v>
       </c>
-      <c r="G53">
-        <v>0.0023</v>
-      </c>
-      <c r="H53">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>0.3573613737650015</v>
       </c>
-      <c r="I53">
-        <v>1123.456902086759</v>
-      </c>
-      <c r="J53">
-        <v>1767.18466581698</v>
-      </c>
-      <c r="K53">
+      <c r="O53">
         <v>0.6389816478265185</v>
       </c>
-      <c r="N53">
+      <c r="R53">
         <v>0.4335388073655105</v>
-      </c>
-      <c r="O53">
-        <v>330.2821071537091</v>
-      </c>
-      <c r="P53">
-        <v>1.000592000561607</v>
-      </c>
-      <c r="S53">
-        <v>36.5171746542336</v>
-      </c>
-      <c r="T53">
-        <v>7.592644960559123</v>
       </c>
       <c r="U53">
         <v>44.10981961479272</v>
@@ -5850,43 +5850,43 @@
         <v>85</v>
       </c>
       <c r="C54">
+        <v>1.000595123120572</v>
+      </c>
+      <c r="D54">
+        <v>330.281076441755</v>
+      </c>
+      <c r="E54">
         <v>1453.73786076628</v>
       </c>
-      <c r="D54">
+      <c r="F54">
+        <v>1123.456784324525</v>
+      </c>
+      <c r="G54">
         <v>18627.07070457179</v>
       </c>
-      <c r="E54">
+      <c r="H54">
+        <v>1735.576791592052</v>
+      </c>
+      <c r="I54">
+        <v>36.06379449535349</v>
+      </c>
+      <c r="J54">
+        <v>7.216211700182853</v>
+      </c>
+      <c r="K54">
         <v>0.6400915700405473</v>
       </c>
-      <c r="G54">
-        <v>0.00238</v>
-      </c>
-      <c r="H54">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>0.3639998161022251</v>
       </c>
-      <c r="I54">
-        <v>1123.456784324525</v>
-      </c>
-      <c r="J54">
-        <v>1735.576791592052</v>
-      </c>
-      <c r="K54">
+      <c r="O54">
         <v>0.6449507538891188</v>
       </c>
-      <c r="N54">
+      <c r="R54">
         <v>0.4002015840553133</v>
-      </c>
-      <c r="O54">
-        <v>330.281076441755</v>
-      </c>
-      <c r="P54">
-        <v>1.000595123120572</v>
-      </c>
-      <c r="S54">
-        <v>36.06379449535349</v>
-      </c>
-      <c r="T54">
-        <v>7.216211700182853</v>
       </c>
       <c r="U54">
         <v>43.28000619553634</v>
@@ -5936,43 +5936,43 @@
         <v>86</v>
       </c>
       <c r="C55">
+        <v>1.000596349217469</v>
+      </c>
+      <c r="D55">
+        <v>330.2806717265037</v>
+      </c>
+      <c r="E55">
         <v>1453.735018933479</v>
       </c>
-      <c r="D55">
+      <c r="F55">
+        <v>1123.454347206975</v>
+      </c>
+      <c r="G55">
         <v>18234.15748514444</v>
       </c>
-      <c r="E55">
+      <c r="H55">
+        <v>1715.077761180311</v>
+      </c>
+      <c r="I55">
+        <v>33.67625672380856</v>
+      </c>
+      <c r="J55">
+        <v>6.121335542152485</v>
+      </c>
+      <c r="K55">
         <v>0.6371673586208575</v>
       </c>
-      <c r="G55">
-        <v>0.0023</v>
-      </c>
-      <c r="H55">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
         <v>0.3661178252234975</v>
       </c>
-      <c r="I55">
-        <v>1123.454347206975</v>
-      </c>
-      <c r="J55">
-        <v>1715.077761180311</v>
-      </c>
-      <c r="K55">
+      <c r="O55">
         <v>0.6389345096279194</v>
       </c>
-      <c r="N55">
+      <c r="R55">
         <v>0.4387154604624717</v>
-      </c>
-      <c r="O55">
-        <v>330.2806717265037</v>
-      </c>
-      <c r="P55">
-        <v>1.000596349217469</v>
-      </c>
-      <c r="S55">
-        <v>33.67625672380856</v>
-      </c>
-      <c r="T55">
-        <v>6.121335542152485</v>
       </c>
       <c r="U55">
         <v>39.79759226596104</v>
@@ -6022,43 +6022,43 @@
         <v>87</v>
       </c>
       <c r="C56">
+        <v>1.000568470708768</v>
+      </c>
+      <c r="D56">
+        <v>330.2898742277318</v>
+      </c>
+      <c r="E56">
         <v>1453.736214694482</v>
       </c>
-      <c r="D56">
+      <c r="F56">
+        <v>1123.44634046675</v>
+      </c>
+      <c r="G56">
         <v>19103.40368087279</v>
       </c>
-      <c r="E56">
+      <c r="H56">
+        <v>1687.138793357876</v>
+      </c>
+      <c r="I56">
+        <v>36.71460532528267</v>
+      </c>
+      <c r="J56">
+        <v>8.039872927657871</v>
+      </c>
+      <c r="K56">
         <v>0.6384984596224297</v>
       </c>
-      <c r="G56">
-        <v>0.00234</v>
-      </c>
-      <c r="H56">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
         <v>0.3609349703989764</v>
       </c>
-      <c r="I56">
-        <v>1123.44634046675</v>
-      </c>
-      <c r="J56">
-        <v>1687.138793357876</v>
-      </c>
-      <c r="K56">
+      <c r="O56">
         <v>0.6259928248418958</v>
       </c>
-      <c r="N56">
+      <c r="R56">
         <v>0.4817879117284113</v>
-      </c>
-      <c r="O56">
-        <v>330.2898742277318</v>
-      </c>
-      <c r="P56">
-        <v>1.000568470708768</v>
-      </c>
-      <c r="S56">
-        <v>36.71460532528267</v>
-      </c>
-      <c r="T56">
-        <v>8.039872927657871</v>
       </c>
       <c r="U56">
         <v>44.75447825294054</v>
@@ -6108,43 +6108,43 @@
         <v>88</v>
       </c>
       <c r="C57">
+        <v>1.000597900938595</v>
+      </c>
+      <c r="D57">
+        <v>330.280159529251</v>
+      </c>
+      <c r="E57">
         <v>1453.739015389572</v>
       </c>
-      <c r="D57">
+      <c r="F57">
+        <v>1123.458855860321</v>
+      </c>
+      <c r="G57">
         <v>18898.53802956064</v>
       </c>
-      <c r="E57">
+      <c r="H57">
+        <v>1659.822059972202</v>
+      </c>
+      <c r="I57">
+        <v>35.46455806358919</v>
+      </c>
+      <c r="J57">
+        <v>6.531908466511248</v>
+      </c>
+      <c r="K57">
         <v>0.6377946997644165</v>
       </c>
-      <c r="G57">
-        <v>0.00233</v>
-      </c>
-      <c r="H57">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
         <v>0.3552669797966843</v>
       </c>
-      <c r="I57">
-        <v>1123.458855860321</v>
-      </c>
-      <c r="J57">
-        <v>1659.822059972202</v>
-      </c>
-      <c r="K57">
+      <c r="O57">
         <v>0.6475369294625752</v>
       </c>
-      <c r="N57">
+      <c r="R57">
         <v>0.4048428593639734</v>
-      </c>
-      <c r="O57">
-        <v>330.280159529251</v>
-      </c>
-      <c r="P57">
-        <v>1.000597900938595</v>
-      </c>
-      <c r="S57">
-        <v>35.46455806358919</v>
-      </c>
-      <c r="T57">
-        <v>6.531908466511248</v>
       </c>
       <c r="U57">
         <v>41.99646653010044</v>
@@ -6194,43 +6194,43 @@
         <v>89</v>
       </c>
       <c r="C58">
+        <v>1.000585019763702</v>
+      </c>
+      <c r="D58">
+        <v>330.2844114382988</v>
+      </c>
+      <c r="E58">
         <v>1453.740862484779</v>
       </c>
-      <c r="D58">
+      <c r="F58">
+        <v>1123.45645104648</v>
+      </c>
+      <c r="G58">
         <v>18948.30687737206</v>
       </c>
-      <c r="E58">
+      <c r="H58">
+        <v>1724.515111556411</v>
+      </c>
+      <c r="I58">
+        <v>36.58605118509112</v>
+      </c>
+      <c r="J58">
+        <v>4.846331424245477</v>
+      </c>
+      <c r="K58">
         <v>0.639969443841512</v>
       </c>
-      <c r="G58">
-        <v>0.00238</v>
-      </c>
-      <c r="H58">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
         <v>0.3532648053787124</v>
       </c>
-      <c r="I58">
-        <v>1123.45645104648</v>
-      </c>
-      <c r="J58">
-        <v>1724.515111556411</v>
-      </c>
-      <c r="K58">
+      <c r="O58">
         <v>0.6364637533238682</v>
       </c>
-      <c r="N58">
+      <c r="R58">
         <v>0.4185700791628302</v>
-      </c>
-      <c r="O58">
-        <v>330.2844114382988</v>
-      </c>
-      <c r="P58">
-        <v>1.000585019763702</v>
-      </c>
-      <c r="S58">
-        <v>36.58605118509112</v>
-      </c>
-      <c r="T58">
-        <v>4.846331424245477</v>
       </c>
       <c r="U58">
         <v>41.43238260933659</v>
@@ -6280,43 +6280,43 @@
         <v>90</v>
       </c>
       <c r="C59">
+        <v>1.000622940706709</v>
+      </c>
+      <c r="D59">
+        <v>330.2718945392426</v>
+      </c>
+      <c r="E59">
         <v>1453.740619818348</v>
       </c>
-      <c r="D59">
+      <c r="F59">
+        <v>1123.468725279106</v>
+      </c>
+      <c r="G59">
         <v>18537.19701423655</v>
       </c>
-      <c r="E59">
+      <c r="H59">
+        <v>1776.889134113735</v>
+      </c>
+      <c r="I59">
+        <v>33.30605513056275</v>
+      </c>
+      <c r="J59">
+        <v>6.423063008670955</v>
+      </c>
+      <c r="K59">
         <v>0.642567810699751</v>
       </c>
-      <c r="G59">
-        <v>0.00225</v>
-      </c>
-      <c r="H59">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
         <v>0.3458463804605866</v>
       </c>
-      <c r="I59">
-        <v>1123.468725279106</v>
-      </c>
-      <c r="J59">
-        <v>1776.889134113735</v>
-      </c>
-      <c r="K59">
+      <c r="O59">
         <v>0.6443438249434952</v>
       </c>
-      <c r="N59">
+      <c r="R59">
         <v>0.393195613902055</v>
-      </c>
-      <c r="O59">
-        <v>330.2718945392426</v>
-      </c>
-      <c r="P59">
-        <v>1.000622940706709</v>
-      </c>
-      <c r="S59">
-        <v>33.30605513056275</v>
-      </c>
-      <c r="T59">
-        <v>6.423063008670955</v>
       </c>
       <c r="U59">
         <v>39.72911813923371</v>
@@ -6366,43 +6366,43 @@
         <v>91</v>
       </c>
       <c r="C60">
+        <v>1.000629418993171</v>
+      </c>
+      <c r="D60">
+        <v>330.2697562891544</v>
+      </c>
+      <c r="E60">
         <v>1453.739166517766</v>
       </c>
-      <c r="D60">
+      <c r="F60">
+        <v>1123.469410228612</v>
+      </c>
+      <c r="G60">
         <v>18439.72198700724</v>
       </c>
-      <c r="E60">
+      <c r="H60">
+        <v>1648.786527055176</v>
+      </c>
+      <c r="I60">
+        <v>38.43439623047728</v>
+      </c>
+      <c r="J60">
+        <v>7.592937886185947</v>
+      </c>
+      <c r="K60">
         <v>0.6355633472984946</v>
       </c>
-      <c r="G60">
-        <v>0.00258</v>
-      </c>
-      <c r="H60">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
         <v>0.3773220578236004</v>
       </c>
-      <c r="I60">
-        <v>1123.469410228612</v>
-      </c>
-      <c r="J60">
-        <v>1648.786527055176</v>
-      </c>
-      <c r="K60">
+      <c r="O60">
         <v>0.6352628169325497</v>
       </c>
-      <c r="N60">
+      <c r="R60">
         <v>0.4408331868977803</v>
-      </c>
-      <c r="O60">
-        <v>330.2697562891544</v>
-      </c>
-      <c r="P60">
-        <v>1.000629418993171</v>
-      </c>
-      <c r="S60">
-        <v>38.43439623047728</v>
-      </c>
-      <c r="T60">
-        <v>7.592937886185947</v>
       </c>
       <c r="U60">
         <v>46.02733411666323</v>
@@ -6452,43 +6452,43 @@
         <v>92</v>
       </c>
       <c r="C61">
+        <v>1.000624057220758</v>
+      </c>
+      <c r="D61">
+        <v>330.2715260160119</v>
+      </c>
+      <c r="E61">
         <v>1453.737174649037</v>
       </c>
-      <c r="D61">
+      <c r="F61">
+        <v>1123.465648633025</v>
+      </c>
+      <c r="G61">
         <v>19260.64650688229</v>
       </c>
-      <c r="E61">
+      <c r="H61">
+        <v>1624.162260516479</v>
+      </c>
+      <c r="I61">
+        <v>38.09695484952366</v>
+      </c>
+      <c r="J61">
+        <v>6.880574598977456</v>
+      </c>
+      <c r="K61">
         <v>0.6400524173649926</v>
       </c>
-      <c r="G61">
-        <v>0.00246</v>
-      </c>
-      <c r="H61">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>0.3629348486410592</v>
       </c>
-      <c r="I61">
-        <v>1123.465648633025</v>
-      </c>
-      <c r="J61">
-        <v>1624.162260516479</v>
-      </c>
-      <c r="K61">
+      <c r="O61">
         <v>0.6329829351266812</v>
       </c>
-      <c r="N61">
+      <c r="R61">
         <v>0.385112452283625</v>
-      </c>
-      <c r="O61">
-        <v>330.2715260160119</v>
-      </c>
-      <c r="P61">
-        <v>1.000624057220758</v>
-      </c>
-      <c r="S61">
-        <v>38.09695484952366</v>
-      </c>
-      <c r="T61">
-        <v>6.880574598977456</v>
       </c>
       <c r="U61">
         <v>44.97752944850112</v>
@@ -6538,43 +6538,43 @@
         <v>93</v>
       </c>
       <c r="C62">
+        <v>1.000615570246359</v>
+      </c>
+      <c r="D62">
+        <v>330.2743272976122</v>
+      </c>
+      <c r="E62">
         <v>1453.733676750572</v>
       </c>
-      <c r="D62">
+      <c r="F62">
+        <v>1123.45934945296</v>
+      </c>
+      <c r="G62">
         <v>19428.7223040801</v>
       </c>
-      <c r="E62">
+      <c r="H62">
+        <v>1646.452925573</v>
+      </c>
+      <c r="I62">
+        <v>38.11090154771414</v>
+      </c>
+      <c r="J62">
+        <v>6.421157689509155</v>
+      </c>
+      <c r="K62">
         <v>0.6405010937456714</v>
       </c>
-      <c r="G62">
-        <v>0.0024</v>
-      </c>
-      <c r="H62">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>0.3624027187720768</v>
       </c>
-      <c r="I62">
-        <v>1123.45934945296</v>
-      </c>
-      <c r="J62">
-        <v>1646.452925573</v>
-      </c>
-      <c r="K62">
+      <c r="O62">
         <v>0.6383448858803069</v>
       </c>
-      <c r="N62">
+      <c r="R62">
         <v>0.4395459371940049</v>
-      </c>
-      <c r="O62">
-        <v>330.2743272976122</v>
-      </c>
-      <c r="P62">
-        <v>1.000615570246359</v>
-      </c>
-      <c r="S62">
-        <v>38.11090154771414</v>
-      </c>
-      <c r="T62">
-        <v>6.421157689509155</v>
       </c>
       <c r="U62">
         <v>44.53205923722329</v>
@@ -6624,43 +6624,43 @@
         <v>94</v>
       </c>
       <c r="C63">
+        <v>1.000573823966937</v>
+      </c>
+      <c r="D63">
+        <v>330.288107114776</v>
+      </c>
+      <c r="E63">
         <v>1453.736443406442</v>
       </c>
-      <c r="D63">
+      <c r="F63">
+        <v>1123.448336291666</v>
+      </c>
+      <c r="G63">
         <v>19144.20442995782</v>
       </c>
-      <c r="E63">
+      <c r="H63">
+        <v>1649.416302989384</v>
+      </c>
+      <c r="I63">
+        <v>38.65433331897265</v>
+      </c>
+      <c r="J63">
+        <v>7.595564863789876</v>
+      </c>
+      <c r="K63">
         <v>0.6394932949625507</v>
       </c>
-      <c r="G63">
-        <v>0.00253</v>
-      </c>
-      <c r="H63">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
         <v>0.3657164376126722</v>
       </c>
-      <c r="I63">
-        <v>1123.448336291666</v>
-      </c>
-      <c r="J63">
-        <v>1649.416302989384</v>
-      </c>
-      <c r="K63">
+      <c r="O63">
         <v>0.6483241260614044</v>
       </c>
-      <c r="N63">
+      <c r="R63">
         <v>0.4323005759370849</v>
-      </c>
-      <c r="O63">
-        <v>330.288107114776</v>
-      </c>
-      <c r="P63">
-        <v>1.000573823966937</v>
-      </c>
-      <c r="S63">
-        <v>38.65433331897265</v>
-      </c>
-      <c r="T63">
-        <v>7.595564863789876</v>
       </c>
       <c r="U63">
         <v>46.24989818276252</v>
@@ -6710,43 +6710,43 @@
         <v>95</v>
       </c>
       <c r="C64">
+        <v>1.000610444034103</v>
+      </c>
+      <c r="D64">
+        <v>330.2760193210308</v>
+      </c>
+      <c r="E64">
         <v>1453.734744109124</v>
       </c>
-      <c r="D64">
+      <c r="F64">
+        <v>1123.458724788093</v>
+      </c>
+      <c r="G64">
         <v>19266.94632617488</v>
       </c>
-      <c r="E64">
+      <c r="H64">
+        <v>1705.4645756381</v>
+      </c>
+      <c r="I64">
+        <v>34.92099091904142</v>
+      </c>
+      <c r="J64">
+        <v>7.371161341788202</v>
+      </c>
+      <c r="K64">
         <v>0.6411236468099419</v>
       </c>
-      <c r="G64">
-        <v>0.00223</v>
-      </c>
-      <c r="H64">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
         <v>0.3535631236074057</v>
       </c>
-      <c r="I64">
-        <v>1123.458724788093</v>
-      </c>
-      <c r="J64">
-        <v>1705.4645756381</v>
-      </c>
-      <c r="K64">
+      <c r="O64">
         <v>0.6441129670193781</v>
       </c>
-      <c r="N64">
+      <c r="R64">
         <v>0.4048558298859614</v>
-      </c>
-      <c r="O64">
-        <v>330.2760193210308</v>
-      </c>
-      <c r="P64">
-        <v>1.000610444034103</v>
-      </c>
-      <c r="S64">
-        <v>34.92099091904142</v>
-      </c>
-      <c r="T64">
-        <v>7.371161341788202</v>
       </c>
       <c r="U64">
         <v>42.29215226082962</v>
@@ -6796,43 +6796,43 @@
         <v>96</v>
       </c>
       <c r="C65">
+        <v>1.000597381732074</v>
+      </c>
+      <c r="D65">
+        <v>330.2803309104836</v>
+      </c>
+      <c r="E65">
         <v>1453.739008333758</v>
       </c>
-      <c r="D65">
+      <c r="F65">
+        <v>1123.458677423274</v>
+      </c>
+      <c r="G65">
         <v>18987.49107218187</v>
       </c>
-      <c r="E65">
+      <c r="H65">
+        <v>1635.157855666117</v>
+      </c>
+      <c r="I65">
+        <v>39.181494184835</v>
+      </c>
+      <c r="J65">
+        <v>6.002649811439183</v>
+      </c>
+      <c r="K65">
         <v>0.6403744081370396</v>
       </c>
-      <c r="G65">
-        <v>0.00255</v>
-      </c>
-      <c r="H65">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
         <v>0.3622952539165722</v>
       </c>
-      <c r="I65">
-        <v>1123.458677423274</v>
-      </c>
-      <c r="J65">
-        <v>1635.157855666117</v>
-      </c>
-      <c r="K65">
+      <c r="O65">
         <v>0.6514004592243711</v>
       </c>
-      <c r="N65">
+      <c r="R65">
         <v>0.3808448528018576</v>
-      </c>
-      <c r="O65">
-        <v>330.2803309104836</v>
-      </c>
-      <c r="P65">
-        <v>1.000597381732074</v>
-      </c>
-      <c r="S65">
-        <v>39.181494184835</v>
-      </c>
-      <c r="T65">
-        <v>6.002649811439183</v>
       </c>
       <c r="U65">
         <v>45.18414399627418</v>
@@ -6882,43 +6882,43 @@
         <v>97</v>
       </c>
       <c r="C66">
+        <v>1.000584708224439</v>
+      </c>
+      <c r="D66">
+        <v>330.2845142747315</v>
+      </c>
+      <c r="E66">
         <v>1453.739593623573</v>
       </c>
-      <c r="D66">
+      <c r="F66">
+        <v>1123.455079348842</v>
+      </c>
+      <c r="G66">
         <v>19030.55739097994</v>
       </c>
-      <c r="E66">
+      <c r="H66">
+        <v>1679.059402063177</v>
+      </c>
+      <c r="I66">
+        <v>37.77805363154803</v>
+      </c>
+      <c r="J66">
+        <v>7.341481968014217</v>
+      </c>
+      <c r="K66">
         <v>0.6381124838557671</v>
       </c>
-      <c r="G66">
-        <v>0.00245</v>
-      </c>
-      <c r="H66">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <v>0.3603583559622074</v>
       </c>
-      <c r="I66">
-        <v>1123.455079348842</v>
-      </c>
-      <c r="J66">
-        <v>1679.059402063177</v>
-      </c>
-      <c r="K66">
+      <c r="O66">
         <v>0.6328996752894331</v>
       </c>
-      <c r="N66">
+      <c r="R66">
         <v>0.4886233124917453</v>
-      </c>
-      <c r="O66">
-        <v>330.2845142747315</v>
-      </c>
-      <c r="P66">
-        <v>1.000584708224439</v>
-      </c>
-      <c r="S66">
-        <v>37.77805363154803</v>
-      </c>
-      <c r="T66">
-        <v>7.341481968014217</v>
       </c>
       <c r="U66">
         <v>45.11953559956224</v>
@@ -6968,43 +6968,43 @@
         <v>98</v>
       </c>
       <c r="C67">
+        <v>1.000632252060839</v>
+      </c>
+      <c r="D67">
+        <v>330.2688212037958</v>
+      </c>
+      <c r="E67">
         <v>1453.732367416853</v>
       </c>
-      <c r="D67">
+      <c r="F67">
+        <v>1123.463546213057</v>
+      </c>
+      <c r="G67">
         <v>19168.95636601711</v>
       </c>
-      <c r="E67">
+      <c r="H67">
+        <v>1640.148927240743</v>
+      </c>
+      <c r="I67">
+        <v>38.87576824486851</v>
+      </c>
+      <c r="J67">
+        <v>6.14747827463543</v>
+      </c>
+      <c r="K67">
         <v>0.6386726142676993</v>
       </c>
-      <c r="G67">
-        <v>0.0025</v>
-      </c>
-      <c r="H67">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
         <v>0.3653429616989983</v>
       </c>
-      <c r="I67">
-        <v>1123.463546213057</v>
-      </c>
-      <c r="J67">
-        <v>1640.148927240743</v>
-      </c>
-      <c r="K67">
+      <c r="O67">
         <v>0.6451003885500577</v>
       </c>
-      <c r="N67">
+      <c r="R67">
         <v>0.3856342585633636</v>
-      </c>
-      <c r="O67">
-        <v>330.2688212037958</v>
-      </c>
-      <c r="P67">
-        <v>1.000632252060839</v>
-      </c>
-      <c r="S67">
-        <v>38.87576824486851</v>
-      </c>
-      <c r="T67">
-        <v>6.14747827463543</v>
       </c>
       <c r="U67">
         <v>45.02324651950394</v>
@@ -7054,43 +7054,43 @@
         <v>99</v>
       </c>
       <c r="C68">
+        <v>1.000601345559378</v>
+      </c>
+      <c r="D68">
+        <v>330.2790225230829</v>
+      </c>
+      <c r="E68">
         <v>1453.739822150763</v>
       </c>
-      <c r="D68">
+      <c r="F68">
+        <v>1123.46079962768</v>
+      </c>
+      <c r="G68">
         <v>19165.78332819425</v>
       </c>
-      <c r="E68">
+      <c r="H68">
+        <v>1641.136634874088</v>
+      </c>
+      <c r="I68">
+        <v>38.61747715259807</v>
+      </c>
+      <c r="J68">
+        <v>6.404822280078865</v>
+      </c>
+      <c r="K68">
         <v>0.6389511645467225</v>
       </c>
-      <c r="G68">
-        <v>0.00252</v>
-      </c>
-      <c r="H68">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
         <v>0.3617905003620441</v>
       </c>
-      <c r="I68">
-        <v>1123.46079962768</v>
-      </c>
-      <c r="J68">
-        <v>1641.136634874088</v>
-      </c>
-      <c r="K68">
+      <c r="O68">
         <v>0.6422008618947953</v>
       </c>
-      <c r="N68">
+      <c r="R68">
         <v>0.4183764274432051</v>
-      </c>
-      <c r="O68">
-        <v>330.2790225230829</v>
-      </c>
-      <c r="P68">
-        <v>1.000601345559378</v>
-      </c>
-      <c r="S68">
-        <v>38.61747715259807</v>
-      </c>
-      <c r="T68">
-        <v>6.404822280078865</v>
       </c>
       <c r="U68">
         <v>45.02229943267694</v>
@@ -7140,43 +7140,43 @@
         <v>100</v>
       </c>
       <c r="C69">
+        <v>1.000626969112924</v>
+      </c>
+      <c r="D69">
+        <v>330.2705649035304</v>
+      </c>
+      <c r="E69">
         <v>1453.738699573467</v>
       </c>
-      <c r="D69">
+      <c r="F69">
+        <v>1123.468134669936</v>
+      </c>
+      <c r="G69">
         <v>19017.23000224803</v>
       </c>
-      <c r="E69">
+      <c r="H69">
+        <v>1651.911986601259</v>
+      </c>
+      <c r="I69">
+        <v>37.96314660888233</v>
+      </c>
+      <c r="J69">
+        <v>5.64355317612995</v>
+      </c>
+      <c r="K69">
         <v>0.6438548863572719</v>
       </c>
-      <c r="G69">
-        <v>0.00252</v>
-      </c>
-      <c r="H69">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
         <v>0.3561625041898896</v>
       </c>
-      <c r="I69">
-        <v>1123.468134669936</v>
-      </c>
-      <c r="J69">
-        <v>1651.911986601259</v>
-      </c>
-      <c r="K69">
+      <c r="O69">
         <v>0.6442814616017399</v>
       </c>
-      <c r="N69">
+      <c r="R69">
         <v>0.3922120203665606</v>
-      </c>
-      <c r="O69">
-        <v>330.2705649035304</v>
-      </c>
-      <c r="P69">
-        <v>1.000626969112924</v>
-      </c>
-      <c r="S69">
-        <v>37.96314660888233</v>
-      </c>
-      <c r="T69">
-        <v>5.64355317612995</v>
       </c>
       <c r="U69">
         <v>43.60669978501228</v>
@@ -7226,43 +7226,43 @@
         <v>101</v>
       </c>
       <c r="C70">
+        <v>1.000625269492404</v>
+      </c>
+      <c r="D70">
+        <v>330.2711258873935</v>
+      </c>
+      <c r="E70">
         <v>1453.732430122003</v>
       </c>
-      <c r="D70">
+      <c r="F70">
+        <v>1123.46130423461</v>
+      </c>
+      <c r="G70">
         <v>19437.92495407654</v>
       </c>
-      <c r="E70">
+      <c r="H70">
+        <v>1625.029070790457</v>
+      </c>
+      <c r="I70">
+        <v>35.32010004904854</v>
+      </c>
+      <c r="J70">
+        <v>6.927277515687192</v>
+      </c>
+      <c r="K70">
         <v>0.6398855661652311</v>
       </c>
-      <c r="G70">
-        <v>0.00227</v>
-      </c>
-      <c r="H70">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
         <v>0.3682567030666429</v>
       </c>
-      <c r="I70">
-        <v>1123.46130423461</v>
-      </c>
-      <c r="J70">
-        <v>1625.029070790457</v>
-      </c>
-      <c r="K70">
+      <c r="O70">
         <v>0.6376279007615125</v>
       </c>
-      <c r="N70">
+      <c r="R70">
         <v>0.366001129293324</v>
-      </c>
-      <c r="O70">
-        <v>330.2711258873935</v>
-      </c>
-      <c r="P70">
-        <v>1.000625269492404</v>
-      </c>
-      <c r="S70">
-        <v>35.32010004904854</v>
-      </c>
-      <c r="T70">
-        <v>6.927277515687192</v>
       </c>
       <c r="U70">
         <v>42.24737756473574</v>
@@ -7312,43 +7312,43 @@
         <v>102</v>
       </c>
       <c r="C71">
+        <v>1.000605266973223</v>
+      </c>
+      <c r="D71">
+        <v>330.2777281457952</v>
+      </c>
+      <c r="E71">
         <v>1453.734489636459</v>
       </c>
-      <c r="D71">
+      <c r="F71">
+        <v>1123.456761490664</v>
+      </c>
+      <c r="G71">
         <v>19139.66213654533</v>
       </c>
-      <c r="E71">
+      <c r="H71">
+        <v>1707.096002236742</v>
+      </c>
+      <c r="I71">
+        <v>36.08242687012345</v>
+      </c>
+      <c r="J71">
+        <v>6.764932071947686</v>
+      </c>
+      <c r="K71">
         <v>0.6388920241497454</v>
       </c>
-      <c r="G71">
-        <v>0.00236</v>
-      </c>
-      <c r="H71">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <v>0.364216172467112</v>
       </c>
-      <c r="I71">
-        <v>1123.456761490664</v>
-      </c>
-      <c r="J71">
-        <v>1707.096002236742</v>
-      </c>
-      <c r="K71">
+      <c r="O71">
         <v>0.639565847765476</v>
       </c>
-      <c r="N71">
+      <c r="R71">
         <v>0.4484644191471296</v>
-      </c>
-      <c r="O71">
-        <v>330.2777281457952</v>
-      </c>
-      <c r="P71">
-        <v>1.000605266973223</v>
-      </c>
-      <c r="S71">
-        <v>36.08242687012345</v>
-      </c>
-      <c r="T71">
-        <v>6.764932071947686</v>
       </c>
       <c r="U71">
         <v>42.84735894207113</v>
@@ -7398,43 +7398,43 @@
         <v>103</v>
       </c>
       <c r="C72">
+        <v>1.000616192384018</v>
+      </c>
+      <c r="D72">
+        <v>330.2741219480504</v>
+      </c>
+      <c r="E72">
         <v>1453.736949359087</v>
       </c>
-      <c r="D72">
+      <c r="F72">
+        <v>1123.462827411036</v>
+      </c>
+      <c r="G72">
         <v>19613.01765782246</v>
       </c>
-      <c r="E72">
+      <c r="H72">
+        <v>1723.983549129483</v>
+      </c>
+      <c r="I72">
+        <v>40.57082265748628</v>
+      </c>
+      <c r="J72">
+        <v>6.039221300033113</v>
+      </c>
+      <c r="K72">
         <v>0.6387787896800146</v>
       </c>
-      <c r="G72">
-        <v>0.00259</v>
-      </c>
-      <c r="H72">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
         <v>0.3678208752807198</v>
       </c>
-      <c r="I72">
-        <v>1123.462827411036</v>
-      </c>
-      <c r="J72">
-        <v>1723.983549129483</v>
-      </c>
-      <c r="K72">
+      <c r="O72">
         <v>0.6350286561480665</v>
       </c>
-      <c r="N72">
+      <c r="R72">
         <v>0.4286049298903449</v>
-      </c>
-      <c r="O72">
-        <v>330.2741219480504</v>
-      </c>
-      <c r="P72">
-        <v>1.000616192384018</v>
-      </c>
-      <c r="S72">
-        <v>40.57082265748628</v>
-      </c>
-      <c r="T72">
-        <v>6.039221300033113</v>
       </c>
       <c r="U72">
         <v>46.61004395751939</v>
@@ -7484,43 +7484,43 @@
         <v>104</v>
       </c>
       <c r="C73">
+        <v>1.000606946886669</v>
+      </c>
+      <c r="D73">
+        <v>330.2771736443515</v>
+      </c>
+      <c r="E73">
         <v>1453.735969924104</v>
       </c>
-      <c r="D73">
+      <c r="F73">
+        <v>1123.458796279753</v>
+      </c>
+      <c r="G73">
         <v>19271.83516304578</v>
       </c>
-      <c r="E73">
+      <c r="H73">
+        <v>1719.679298437244</v>
+      </c>
+      <c r="I73">
+        <v>35.63666063608861</v>
+      </c>
+      <c r="J73">
+        <v>5.880197977337836</v>
+      </c>
+      <c r="K73">
         <v>0.6433132359178328</v>
       </c>
-      <c r="G73">
-        <v>0.00231</v>
-      </c>
-      <c r="H73">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
         <v>0.3517185468522294</v>
       </c>
-      <c r="I73">
-        <v>1123.458796279753</v>
-      </c>
-      <c r="J73">
-        <v>1719.679298437244</v>
-      </c>
-      <c r="K73">
+      <c r="O73">
         <v>0.636644501710348</v>
       </c>
-      <c r="N73">
+      <c r="R73">
         <v>0.456436520666578</v>
-      </c>
-      <c r="O73">
-        <v>330.2771736443515</v>
-      </c>
-      <c r="P73">
-        <v>1.000606946886669</v>
-      </c>
-      <c r="S73">
-        <v>35.63666063608861</v>
-      </c>
-      <c r="T73">
-        <v>5.880197977337836</v>
       </c>
       <c r="U73">
         <v>41.51685861342645</v>
@@ -7570,43 +7570,43 @@
         <v>105</v>
       </c>
       <c r="C74">
+        <v>1.000641421488242</v>
+      </c>
+      <c r="D74">
+        <v>330.2657947690366</v>
+      </c>
+      <c r="E74">
         <v>1453.734050564974</v>
       </c>
-      <c r="D74">
+      <c r="F74">
+        <v>1123.468255795937</v>
+      </c>
+      <c r="G74">
         <v>19579.98663102658</v>
       </c>
-      <c r="E74">
+      <c r="H74">
+        <v>1726.618592781991</v>
+      </c>
+      <c r="I74">
+        <v>37.96075513637956</v>
+      </c>
+      <c r="J74">
+        <v>5.716022155626201</v>
+      </c>
+      <c r="K74">
         <v>0.6443743401031139</v>
       </c>
-      <c r="G74">
-        <v>0.00246</v>
-      </c>
-      <c r="H74">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
         <v>0.3571363528379445</v>
       </c>
-      <c r="I74">
-        <v>1123.468255795937</v>
-      </c>
-      <c r="J74">
-        <v>1726.618592781991</v>
-      </c>
-      <c r="K74">
+      <c r="O74">
         <v>0.6523644431445752</v>
       </c>
-      <c r="N74">
+      <c r="R74">
         <v>0.3776348849201987</v>
-      </c>
-      <c r="O74">
-        <v>330.2657947690366</v>
-      </c>
-      <c r="P74">
-        <v>1.000641421488242</v>
-      </c>
-      <c r="S74">
-        <v>37.96075513637956</v>
-      </c>
-      <c r="T74">
-        <v>5.716022155626201</v>
       </c>
       <c r="U74">
         <v>43.67677729200576</v>
@@ -7656,43 +7656,43 @@
         <v>106</v>
       </c>
       <c r="C75">
+        <v>1.000606522117488</v>
+      </c>
+      <c r="D75">
+        <v>330.2773138508778</v>
+      </c>
+      <c r="E75">
         <v>1453.733147113155</v>
       </c>
-      <c r="D75">
+      <c r="F75">
+        <v>1123.455833262278</v>
+      </c>
+      <c r="G75">
         <v>19406.09874321437</v>
       </c>
-      <c r="E75">
+      <c r="H75">
+        <v>1661.964429588654</v>
+      </c>
+      <c r="I75">
+        <v>37.24458590909412</v>
+      </c>
+      <c r="J75">
+        <v>6.752173579131103</v>
+      </c>
+      <c r="K75">
         <v>0.6409753485673552</v>
       </c>
-      <c r="G75">
-        <v>0.00242</v>
-      </c>
-      <c r="H75">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
         <v>0.3507299512892643</v>
       </c>
-      <c r="I75">
-        <v>1123.455833262278</v>
-      </c>
-      <c r="J75">
-        <v>1661.964429588654</v>
-      </c>
-      <c r="K75">
+      <c r="O75">
         <v>0.6290064675628958</v>
       </c>
-      <c r="N75">
+      <c r="R75">
         <v>0.4452436856505225</v>
-      </c>
-      <c r="O75">
-        <v>330.2773138508778</v>
-      </c>
-      <c r="P75">
-        <v>1.000606522117488</v>
-      </c>
-      <c r="S75">
-        <v>37.24458590909412</v>
-      </c>
-      <c r="T75">
-        <v>6.752173579131103</v>
       </c>
       <c r="U75">
         <v>43.99675948822522</v>
@@ -7742,43 +7742,43 @@
         <v>107</v>
       </c>
       <c r="C76">
+        <v>1.000590512773814</v>
+      </c>
+      <c r="D76">
+        <v>330.2825982533959</v>
+      </c>
+      <c r="E76">
         <v>1453.731503775221</v>
       </c>
-      <c r="D76">
+      <c r="F76">
+        <v>1123.448905521825</v>
+      </c>
+      <c r="G76">
         <v>19630.12309162354</v>
       </c>
-      <c r="E76">
+      <c r="H76">
+        <v>1700.844285237337</v>
+      </c>
+      <c r="I76">
+        <v>39.78044898374196</v>
+      </c>
+      <c r="J76">
+        <v>6.382452509543989</v>
+      </c>
+      <c r="K76">
         <v>0.6369966546290188</v>
       </c>
-      <c r="G76">
-        <v>0.00258</v>
-      </c>
-      <c r="H76">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
         <v>0.3711120731559501</v>
       </c>
-      <c r="I76">
-        <v>1123.448905521825</v>
-      </c>
-      <c r="J76">
-        <v>1700.844285237337</v>
-      </c>
-      <c r="K76">
+      <c r="O76">
         <v>0.6466524783731066</v>
       </c>
-      <c r="N76">
+      <c r="R76">
         <v>0.3925688855976509</v>
-      </c>
-      <c r="O76">
-        <v>330.2825982533959</v>
-      </c>
-      <c r="P76">
-        <v>1.000590512773814</v>
-      </c>
-      <c r="S76">
-        <v>39.78044898374196</v>
-      </c>
-      <c r="T76">
-        <v>6.382452509543989</v>
       </c>
       <c r="U76">
         <v>46.16290149328594</v>
@@ -7828,43 +7828,43 @@
         <v>108</v>
       </c>
       <c r="C77">
+        <v>1.000642709197498</v>
+      </c>
+      <c r="D77">
+        <v>330.2653697558756</v>
+      </c>
+      <c r="E77">
         <v>1453.733395253289</v>
       </c>
-      <c r="D77">
+      <c r="F77">
+        <v>1123.468025497414</v>
+      </c>
+      <c r="G77">
         <v>19420.48984016729</v>
       </c>
-      <c r="E77">
+      <c r="H77">
+        <v>1674.378488412338</v>
+      </c>
+      <c r="I77">
+        <v>38.31936532178086</v>
+      </c>
+      <c r="J77">
+        <v>6.588452190646384</v>
+      </c>
+      <c r="K77">
         <v>0.635770424098993</v>
       </c>
-      <c r="G77">
-        <v>0.00244</v>
-      </c>
-      <c r="H77">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>0.3667368878496088</v>
       </c>
-      <c r="I77">
-        <v>1123.468025497414</v>
-      </c>
-      <c r="J77">
-        <v>1674.378488412338</v>
-      </c>
-      <c r="K77">
+      <c r="O77">
         <v>0.6401761233219359</v>
       </c>
-      <c r="N77">
+      <c r="R77">
         <v>0.4180259016064161</v>
-      </c>
-      <c r="O77">
-        <v>330.2653697558756</v>
-      </c>
-      <c r="P77">
-        <v>1.000642709197498</v>
-      </c>
-      <c r="S77">
-        <v>38.31936532178086</v>
-      </c>
-      <c r="T77">
-        <v>6.588452190646384</v>
       </c>
       <c r="U77">
         <v>44.90781751242725</v>
@@ -7914,43 +7914,43 @@
         <v>109</v>
       </c>
       <c r="C78">
+        <v>1.000581775088056</v>
+      </c>
+      <c r="D78">
+        <v>330.2854824809788</v>
+      </c>
+      <c r="E78">
         <v>1453.741118671579</v>
       </c>
-      <c r="D78">
+      <c r="F78">
+        <v>1123.4556361906</v>
+      </c>
+      <c r="G78">
         <v>19094.77962083993</v>
       </c>
-      <c r="E78">
+      <c r="H78">
+        <v>1566.008985854686</v>
+      </c>
+      <c r="I78">
+        <v>37.12625379721084</v>
+      </c>
+      <c r="J78">
+        <v>7.009487338243835</v>
+      </c>
+      <c r="K78">
         <v>0.6363477429182082</v>
       </c>
-      <c r="G78">
-        <v>0.00233</v>
-      </c>
-      <c r="H78">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
         <v>0.3639171425560962</v>
       </c>
-      <c r="I78">
-        <v>1123.4556361906</v>
-      </c>
-      <c r="J78">
-        <v>1566.008985854686</v>
-      </c>
-      <c r="K78">
+      <c r="O78">
         <v>0.6309004259077673</v>
       </c>
-      <c r="N78">
+      <c r="R78">
         <v>0.4572686568878274</v>
-      </c>
-      <c r="O78">
-        <v>330.2854824809788</v>
-      </c>
-      <c r="P78">
-        <v>1.000581775088056</v>
-      </c>
-      <c r="S78">
-        <v>37.12625379721084</v>
-      </c>
-      <c r="T78">
-        <v>7.009487338243835</v>
       </c>
       <c r="U78">
         <v>44.13574113545468</v>
